--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="1409">
   <si>
     <t>Team</t>
   </si>
@@ -4110,6 +4110,141 @@
   </si>
   <si>
     <t>Miek, The Unhived</t>
+  </si>
+  <si>
+    <t>Ronan the Accuser</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Universal Weapon</t>
+  </si>
+  <si>
+    <t>Rally Kree Warriors</t>
+  </si>
+  <si>
+    <t>Accuse enemies of the empire</t>
+  </si>
+  <si>
+    <t>Seek the infinity gems</t>
+  </si>
+  <si>
+    <t>Nebula</t>
+  </si>
+  <si>
+    <t>Ruthless Cyborg</t>
+  </si>
+  <si>
+    <t>Galactic Rogue</t>
+  </si>
+  <si>
+    <t>Illusion Device</t>
+  </si>
+  <si>
+    <t>Daring Raid</t>
+  </si>
+  <si>
+    <t>Captain Mar-Vell</t>
+  </si>
+  <si>
+    <t>Cosmic Awareness</t>
+  </si>
+  <si>
+    <t>Kree Genetics</t>
+  </si>
+  <si>
+    <t>Channel the Nega-Bands</t>
+  </si>
+  <si>
+    <t>Protector of the Universe</t>
+  </si>
+  <si>
+    <t>Quasar</t>
+  </si>
+  <si>
+    <t>Manipulate Gravitons</t>
+  </si>
+  <si>
+    <t>Cosmic Champion</t>
+  </si>
+  <si>
+    <t>The Quantum Bands</t>
+  </si>
+  <si>
+    <t>The Star Brand</t>
+  </si>
+  <si>
+    <t>Adam Warlock</t>
+  </si>
+  <si>
+    <t>Transmute Matter</t>
+  </si>
+  <si>
+    <t>Regenerative Cocoon</t>
+  </si>
+  <si>
+    <t>Soulblast</t>
+  </si>
+  <si>
+    <t>Manifest the Soul Gem</t>
+  </si>
+  <si>
+    <t>Moondragon</t>
+  </si>
+  <si>
+    <t>Peaceful Meditation</t>
+  </si>
+  <si>
+    <t>Psionic Warning</t>
+  </si>
+  <si>
+    <t>Psychokinetic Blast</t>
+  </si>
+  <si>
+    <t>Lunar Dragon Form</t>
+  </si>
+  <si>
+    <t>Draw from the worldmind</t>
+  </si>
+  <si>
+    <t>Electromagnetic Wave</t>
+  </si>
+  <si>
+    <t>Declare Galatic Threat</t>
+  </si>
+  <si>
+    <t>Mobilize the Nova Corps</t>
+  </si>
+  <si>
+    <t>Yondu</t>
+  </si>
+  <si>
+    <t>Whistling Arrow</t>
+  </si>
+  <si>
+    <t>Interstellar Hunter</t>
+  </si>
+  <si>
+    <t>Anticipate their movements</t>
+  </si>
+  <si>
+    <t>Space Pirate</t>
+  </si>
+  <si>
+    <t>Phyla-Vell</t>
+  </si>
+  <si>
+    <t>Channel cosmic power</t>
+  </si>
+  <si>
+    <t>Quantum Sword</t>
+  </si>
+  <si>
+    <t>Martyr</t>
+  </si>
+  <si>
+    <t>Avatar of Oblivion</t>
   </si>
 </sst>
 </file>
@@ -4451,11 +4586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW872"/>
+  <dimension ref="A1:AW908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B685" sqref="B685"/>
+      <pane ySplit="1" topLeftCell="A877" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B874" sqref="B874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25379,6 +25514,9 @@
       <c r="D611" t="s">
         <v>889</v>
       </c>
+      <c r="F611" t="s">
+        <v>898</v>
+      </c>
       <c r="H611">
         <v>2</v>
       </c>
@@ -25417,6 +25555,9 @@
       <c r="D612" t="s">
         <v>889</v>
       </c>
+      <c r="F612" t="s">
+        <v>898</v>
+      </c>
       <c r="H612">
         <v>4</v>
       </c>
@@ -25452,6 +25593,9 @@
       <c r="D613" t="s">
         <v>889</v>
       </c>
+      <c r="F613" t="s">
+        <v>898</v>
+      </c>
       <c r="H613">
         <v>5</v>
       </c>
@@ -25487,6 +25631,9 @@
       <c r="D614" t="s">
         <v>889</v>
       </c>
+      <c r="F614" t="s">
+        <v>898</v>
+      </c>
       <c r="H614">
         <v>9</v>
       </c>
@@ -33708,6 +33855,1143 @@
         <v>1</v>
       </c>
       <c r="AJ872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:47">
+      <c r="A873" t="s">
+        <v>701</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H873">
+        <v>3</v>
+      </c>
+      <c r="I873">
+        <v>5</v>
+      </c>
+      <c r="N873">
+        <v>1</v>
+      </c>
+      <c r="W873">
+        <v>2</v>
+      </c>
+      <c r="AT873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:47">
+      <c r="A874" t="s">
+        <v>701</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H874">
+        <v>4</v>
+      </c>
+      <c r="I874">
+        <v>5</v>
+      </c>
+      <c r="L874">
+        <v>1</v>
+      </c>
+      <c r="Q874">
+        <v>1</v>
+      </c>
+      <c r="U874">
+        <v>1</v>
+      </c>
+      <c r="Z874">
+        <v>1</v>
+      </c>
+      <c r="AT874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:47">
+      <c r="A875" t="s">
+        <v>701</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H875">
+        <v>6</v>
+      </c>
+      <c r="I875">
+        <v>3</v>
+      </c>
+      <c r="L875">
+        <v>1</v>
+      </c>
+      <c r="S875">
+        <v>1</v>
+      </c>
+      <c r="V875">
+        <v>1</v>
+      </c>
+      <c r="Z875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:47">
+      <c r="A876" t="s">
+        <v>701</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H876">
+        <v>8</v>
+      </c>
+      <c r="I876">
+        <v>1</v>
+      </c>
+      <c r="N876">
+        <v>1</v>
+      </c>
+      <c r="Q876">
+        <v>1</v>
+      </c>
+      <c r="V876">
+        <v>1</v>
+      </c>
+      <c r="AT876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:47">
+      <c r="A877" t="s">
+        <v>322</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H877">
+        <v>3</v>
+      </c>
+      <c r="I877">
+        <v>5</v>
+      </c>
+      <c r="N877">
+        <v>1</v>
+      </c>
+      <c r="U877">
+        <v>1</v>
+      </c>
+      <c r="AM877">
+        <v>1</v>
+      </c>
+      <c r="AT877">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:47">
+      <c r="A878" t="s">
+        <v>322</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H878">
+        <v>5</v>
+      </c>
+      <c r="I878">
+        <v>5</v>
+      </c>
+      <c r="M878">
+        <v>1</v>
+      </c>
+      <c r="R878">
+        <v>1</v>
+      </c>
+      <c r="S878">
+        <v>1</v>
+      </c>
+      <c r="V878">
+        <v>1</v>
+      </c>
+      <c r="AT878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:47">
+      <c r="A879" t="s">
+        <v>322</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H879">
+        <v>4</v>
+      </c>
+      <c r="I879">
+        <v>3</v>
+      </c>
+      <c r="N879">
+        <v>1</v>
+      </c>
+      <c r="P879">
+        <v>1</v>
+      </c>
+      <c r="S879">
+        <v>1</v>
+      </c>
+      <c r="V879">
+        <v>1</v>
+      </c>
+      <c r="Z879">
+        <v>-1</v>
+      </c>
+      <c r="AT879">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:47">
+      <c r="A880" t="s">
+        <v>322</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H880">
+        <v>7</v>
+      </c>
+      <c r="I880">
+        <v>1</v>
+      </c>
+      <c r="M880">
+        <v>1</v>
+      </c>
+      <c r="U880">
+        <v>1</v>
+      </c>
+      <c r="V880">
+        <v>1</v>
+      </c>
+      <c r="AT880">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:46">
+      <c r="A881" t="s">
+        <v>385</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H881">
+        <v>2</v>
+      </c>
+      <c r="I881">
+        <v>5</v>
+      </c>
+      <c r="J881">
+        <v>1</v>
+      </c>
+      <c r="O881">
+        <v>1</v>
+      </c>
+      <c r="V881">
+        <v>1</v>
+      </c>
+      <c r="AP881">
+        <v>1</v>
+      </c>
+      <c r="AT881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:46">
+      <c r="A882" t="s">
+        <v>385</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H882">
+        <v>3</v>
+      </c>
+      <c r="I882">
+        <v>5</v>
+      </c>
+      <c r="L882">
+        <v>1</v>
+      </c>
+      <c r="U882">
+        <v>1</v>
+      </c>
+      <c r="AT882">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:46">
+      <c r="A883" t="s">
+        <v>385</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H883">
+        <v>6</v>
+      </c>
+      <c r="I883">
+        <v>3</v>
+      </c>
+      <c r="N883">
+        <v>1</v>
+      </c>
+      <c r="V883">
+        <v>1</v>
+      </c>
+      <c r="Y883">
+        <v>-1</v>
+      </c>
+      <c r="AJ883">
+        <v>1</v>
+      </c>
+      <c r="AM883">
+        <v>1</v>
+      </c>
+      <c r="AT883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:46">
+      <c r="A884" t="s">
+        <v>385</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H884">
+        <v>7</v>
+      </c>
+      <c r="I884">
+        <v>1</v>
+      </c>
+      <c r="K884">
+        <v>1</v>
+      </c>
+      <c r="V884">
+        <v>1</v>
+      </c>
+      <c r="AP884">
+        <v>1</v>
+      </c>
+      <c r="AT884">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:46">
+      <c r="A885" t="s">
+        <v>385</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H885">
+        <v>3</v>
+      </c>
+      <c r="I885">
+        <v>5</v>
+      </c>
+      <c r="K885">
+        <v>1</v>
+      </c>
+      <c r="P885">
+        <v>1</v>
+      </c>
+      <c r="U885">
+        <v>1</v>
+      </c>
+      <c r="AT885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:46">
+      <c r="A886" t="s">
+        <v>385</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H886">
+        <v>4</v>
+      </c>
+      <c r="I886">
+        <v>5</v>
+      </c>
+      <c r="J886">
+        <v>1</v>
+      </c>
+      <c r="V886">
+        <v>1</v>
+      </c>
+      <c r="AT886">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:46">
+      <c r="A887" t="s">
+        <v>385</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H887">
+        <v>3</v>
+      </c>
+      <c r="I887">
+        <v>3</v>
+      </c>
+      <c r="K887">
+        <v>1</v>
+      </c>
+      <c r="V887">
+        <v>1</v>
+      </c>
+      <c r="AM887">
+        <v>1</v>
+      </c>
+      <c r="AT887">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:46">
+      <c r="A888" t="s">
+        <v>385</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H888">
+        <v>1</v>
+      </c>
+      <c r="I888">
+        <v>1</v>
+      </c>
+      <c r="L888">
+        <v>1</v>
+      </c>
+      <c r="V888">
+        <v>1</v>
+      </c>
+      <c r="AT888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:46">
+      <c r="A889" t="s">
+        <v>385</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H889">
+        <v>3</v>
+      </c>
+      <c r="I889">
+        <v>5</v>
+      </c>
+      <c r="K889">
+        <v>1</v>
+      </c>
+      <c r="AT889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:46">
+      <c r="A890" t="s">
+        <v>385</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H890">
+        <v>4</v>
+      </c>
+      <c r="I890">
+        <v>5</v>
+      </c>
+      <c r="L890">
+        <v>1</v>
+      </c>
+      <c r="X890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:46">
+      <c r="A891" t="s">
+        <v>385</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H891">
+        <v>5</v>
+      </c>
+      <c r="I891">
+        <v>3</v>
+      </c>
+      <c r="K891">
+        <v>1</v>
+      </c>
+      <c r="P891">
+        <v>1</v>
+      </c>
+      <c r="AT891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:46">
+      <c r="A892" t="s">
+        <v>385</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H892">
+        <v>8</v>
+      </c>
+      <c r="I892">
+        <v>1</v>
+      </c>
+      <c r="J892">
+        <v>1</v>
+      </c>
+      <c r="AJ892">
+        <v>2</v>
+      </c>
+      <c r="AT892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:46">
+      <c r="A893" t="s">
+        <v>385</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H893">
+        <v>3</v>
+      </c>
+      <c r="I893">
+        <v>5</v>
+      </c>
+      <c r="K893">
+        <v>1</v>
+      </c>
+      <c r="U893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:46">
+      <c r="A894" t="s">
+        <v>385</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H894">
+        <v>4</v>
+      </c>
+      <c r="I894">
+        <v>5</v>
+      </c>
+      <c r="M894">
+        <v>1</v>
+      </c>
+      <c r="R894">
+        <v>1</v>
+      </c>
+      <c r="V894">
+        <v>1</v>
+      </c>
+      <c r="AP894">
+        <v>1</v>
+      </c>
+      <c r="AT894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:46">
+      <c r="A895" t="s">
+        <v>385</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H895">
+        <v>6</v>
+      </c>
+      <c r="I895">
+        <v>3</v>
+      </c>
+      <c r="J895">
+        <v>1</v>
+      </c>
+      <c r="V895">
+        <v>1</v>
+      </c>
+      <c r="AJ895">
+        <v>1</v>
+      </c>
+      <c r="AP895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:46">
+      <c r="A896" t="s">
+        <v>385</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H896">
+        <v>8</v>
+      </c>
+      <c r="I896">
+        <v>1</v>
+      </c>
+      <c r="L896">
+        <v>1</v>
+      </c>
+      <c r="V896">
+        <v>1</v>
+      </c>
+      <c r="AP896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:46">
+      <c r="A897" t="s">
+        <v>385</v>
+      </c>
+      <c r="B897" t="s">
+        <v>898</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F897" t="s">
+        <v>898</v>
+      </c>
+      <c r="H897">
+        <v>2</v>
+      </c>
+      <c r="I897">
+        <v>5</v>
+      </c>
+      <c r="N897">
+        <v>1</v>
+      </c>
+      <c r="S897">
+        <v>1</v>
+      </c>
+      <c r="U897">
+        <v>1</v>
+      </c>
+      <c r="V897">
+        <v>1</v>
+      </c>
+      <c r="W897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:46">
+      <c r="A898" t="s">
+        <v>385</v>
+      </c>
+      <c r="B898" t="s">
+        <v>898</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F898" t="s">
+        <v>898</v>
+      </c>
+      <c r="H898">
+        <v>3</v>
+      </c>
+      <c r="I898">
+        <v>5</v>
+      </c>
+      <c r="J898">
+        <v>1</v>
+      </c>
+      <c r="O898">
+        <v>1</v>
+      </c>
+      <c r="U898">
+        <v>1</v>
+      </c>
+      <c r="AT898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:46">
+      <c r="A899" t="s">
+        <v>385</v>
+      </c>
+      <c r="B899" t="s">
+        <v>898</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F899" t="s">
+        <v>898</v>
+      </c>
+      <c r="H899">
+        <v>6</v>
+      </c>
+      <c r="I899">
+        <v>3</v>
+      </c>
+      <c r="N899">
+        <v>1</v>
+      </c>
+      <c r="S899">
+        <v>2</v>
+      </c>
+      <c r="W899">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:46">
+      <c r="A900" t="s">
+        <v>385</v>
+      </c>
+      <c r="B900" t="s">
+        <v>898</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F900" t="s">
+        <v>898</v>
+      </c>
+      <c r="H900">
+        <v>8</v>
+      </c>
+      <c r="I900">
+        <v>1</v>
+      </c>
+      <c r="J900">
+        <v>1</v>
+      </c>
+      <c r="O900">
+        <v>2</v>
+      </c>
+      <c r="W900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:46">
+      <c r="A901" t="s">
+        <v>322</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H901">
+        <v>2</v>
+      </c>
+      <c r="I901">
+        <v>5</v>
+      </c>
+      <c r="J901">
+        <v>1</v>
+      </c>
+      <c r="O901">
+        <v>1</v>
+      </c>
+      <c r="AT901">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:46">
+      <c r="A902" t="s">
+        <v>322</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H902">
+        <v>3</v>
+      </c>
+      <c r="I902">
+        <v>5</v>
+      </c>
+      <c r="K902">
+        <v>1</v>
+      </c>
+      <c r="P902">
+        <v>1</v>
+      </c>
+      <c r="V902">
+        <v>1</v>
+      </c>
+      <c r="AP902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:46">
+      <c r="A903" t="s">
+        <v>322</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H903">
+        <v>5</v>
+      </c>
+      <c r="I903">
+        <v>3</v>
+      </c>
+      <c r="M903">
+        <v>1</v>
+      </c>
+      <c r="V903">
+        <v>1</v>
+      </c>
+      <c r="AJ903">
+        <v>1</v>
+      </c>
+      <c r="AP903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:46">
+      <c r="A904" t="s">
+        <v>322</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H904">
+        <v>7</v>
+      </c>
+      <c r="I904">
+        <v>1</v>
+      </c>
+      <c r="N904">
+        <v>1</v>
+      </c>
+      <c r="AJ904">
+        <v>2</v>
+      </c>
+      <c r="AT904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:46">
+      <c r="A905" t="s">
+        <v>322</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H905">
+        <v>2</v>
+      </c>
+      <c r="I905">
+        <v>5</v>
+      </c>
+      <c r="M905">
+        <v>1</v>
+      </c>
+      <c r="R905">
+        <v>1</v>
+      </c>
+      <c r="W905">
+        <v>1</v>
+      </c>
+      <c r="AT905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:46">
+      <c r="A906" t="s">
+        <v>322</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H906">
+        <v>4</v>
+      </c>
+      <c r="I906">
+        <v>5</v>
+      </c>
+      <c r="M906">
+        <v>1</v>
+      </c>
+      <c r="W906">
+        <v>1</v>
+      </c>
+      <c r="AT906">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:46">
+      <c r="A907" t="s">
+        <v>322</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H907">
+        <v>3</v>
+      </c>
+      <c r="I907">
+        <v>3</v>
+      </c>
+      <c r="L907">
+        <v>1</v>
+      </c>
+      <c r="V907">
+        <v>1</v>
+      </c>
+      <c r="AA907">
+        <v>-1</v>
+      </c>
+      <c r="AT907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:46">
+      <c r="A908" t="s">
+        <v>322</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H908">
+        <v>8</v>
+      </c>
+      <c r="I908">
+        <v>1</v>
+      </c>
+      <c r="M908">
+        <v>1</v>
+      </c>
+      <c r="V908">
+        <v>1</v>
+      </c>
+      <c r="AM908">
+        <v>1</v>
+      </c>
+      <c r="AT908">
         <v>1</v>
       </c>
     </row>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -4469,9 +4469,6 @@
     <t>dp,jpg</t>
   </si>
   <si>
-    <t>fearitself,png</t>
-  </si>
-  <si>
     <t>ff,jpg</t>
   </si>
   <si>
@@ -4563,6 +4560,9 @@
   </si>
   <si>
     <t>venom2,jpg</t>
+  </si>
+  <si>
+    <t>fearitself,jpg</t>
   </si>
 </sst>
 </file>
@@ -5144,7 +5144,7 @@
         <v>20</v>
       </c>
       <c r="AX2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY2" t="s">
         <v>1466</v>
@@ -5182,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="AX3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY3" t="s">
         <v>1468</v>
@@ -5220,7 +5220,7 @@
         <v>-2</v>
       </c>
       <c r="AX4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY4" t="s">
         <v>1462</v>
@@ -5264,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="AX5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY5" t="s">
         <v>1465</v>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="AX6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY6" t="s">
         <v>1443</v>
@@ -5337,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="AX7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY7" t="s">
         <v>1432</v>
@@ -5378,7 +5378,7 @@
         <v>-2</v>
       </c>
       <c r="AX8" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY8" t="s">
         <v>1444</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="AX9" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY9" t="s">
         <v>1445</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AX10" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY10" t="s">
         <v>1464</v>
@@ -5501,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="AX11" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY11" t="s">
         <v>1467</v>
@@ -5548,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="AX12" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY12" t="s">
         <v>1463</v>
@@ -5586,7 +5586,7 @@
         <v>48</v>
       </c>
       <c r="AX13" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY13" t="s">
         <v>1461</v>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AX18" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY18" t="s">
         <v>1421</v>
@@ -5826,7 +5826,7 @@
         <v>60</v>
       </c>
       <c r="AX19" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY19" t="s">
         <v>1416</v>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="AX20" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY20" t="s">
         <v>1419</v>
@@ -5902,7 +5902,7 @@
         <v>63</v>
       </c>
       <c r="AX21" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY21" t="s">
         <v>1418</v>
@@ -6092,7 +6092,7 @@
         <v>623</v>
       </c>
       <c r="AX26" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY26" t="s">
         <v>1446</v>
@@ -6136,7 +6136,7 @@
         <v>623</v>
       </c>
       <c r="AX27" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY27" t="s">
         <v>1447</v>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="AX28" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY28" t="s">
         <v>1448</v>
@@ -6212,7 +6212,7 @@
         <v>623</v>
       </c>
       <c r="AX29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY29" t="s">
         <v>1449</v>
@@ -6259,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY30" t="s">
         <v>1422</v>
@@ -6303,7 +6303,7 @@
         <v>623</v>
       </c>
       <c r="AX31" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY31" t="s">
         <v>1423</v>
@@ -6350,7 +6350,7 @@
         <v>83</v>
       </c>
       <c r="AX32" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY32" t="s">
         <v>1442</v>
@@ -6391,7 +6391,7 @@
         <v>63</v>
       </c>
       <c r="AX33" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY33" t="s">
         <v>1441</v>
@@ -6593,7 +6593,7 @@
         <v>94</v>
       </c>
       <c r="AX38" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY38" t="s">
         <v>1479</v>
@@ -6637,7 +6637,7 @@
         <v>623</v>
       </c>
       <c r="AX39" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY39" t="s">
         <v>1478</v>
@@ -6681,10 +6681,10 @@
         <v>623</v>
       </c>
       <c r="AX40" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AY40" t="s">
         <v>1499</v>
-      </c>
-      <c r="AY40" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="41" spans="1:51">
@@ -6722,10 +6722,10 @@
         <v>1</v>
       </c>
       <c r="AX41" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY41" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:51">
@@ -6921,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="AX46" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY46" t="s">
         <v>1450</v>
@@ -6962,7 +6962,7 @@
         <v>623</v>
       </c>
       <c r="AX47" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY47" t="s">
         <v>1453</v>
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="AX48" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY48" t="s">
         <v>1448</v>
@@ -7044,7 +7044,7 @@
         <v>623</v>
       </c>
       <c r="AX49" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY49" t="s">
         <v>1447</v>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="AX50" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY50" t="s">
         <v>1437</v>
@@ -7120,7 +7120,7 @@
         <v>113</v>
       </c>
       <c r="AX51" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY51" t="s">
         <v>1438</v>
@@ -7161,7 +7161,7 @@
         <v>623</v>
       </c>
       <c r="AX52" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY52" t="s">
         <v>1436</v>
@@ -7199,7 +7199,7 @@
         <v>623</v>
       </c>
       <c r="AX53" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY53" t="s">
         <v>1435</v>
@@ -7237,7 +7237,7 @@
         <v>117</v>
       </c>
       <c r="AX54" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY54" t="s">
         <v>1446</v>
@@ -7272,7 +7272,7 @@
         <v>623</v>
       </c>
       <c r="AX55" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY55" t="s">
         <v>1445</v>
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="AX56" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY56" t="s">
         <v>1447</v>
@@ -7348,7 +7348,7 @@
         <v>121</v>
       </c>
       <c r="AX57" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY57" t="s">
         <v>1444</v>
@@ -7389,7 +7389,7 @@
         <v>113</v>
       </c>
       <c r="AX58" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY58" t="s">
         <v>1450</v>
@@ -7427,7 +7427,7 @@
         <v>623</v>
       </c>
       <c r="AX59" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY59" t="s">
         <v>1449</v>
@@ -7468,7 +7468,7 @@
         <v>113</v>
       </c>
       <c r="AX60" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY60" t="s">
         <v>1451</v>
@@ -7506,7 +7506,7 @@
         <v>128</v>
       </c>
       <c r="AX61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY61" t="s">
         <v>1448</v>
@@ -7544,7 +7544,7 @@
         <v>623</v>
       </c>
       <c r="AX62" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY62" t="s">
         <v>1425</v>
@@ -7582,7 +7582,7 @@
         <v>623</v>
       </c>
       <c r="AX63" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY63" t="s">
         <v>1460</v>
@@ -7620,7 +7620,7 @@
         <v>113</v>
       </c>
       <c r="AX64" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY64" t="s">
         <v>1440</v>
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="AX65" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY65" t="s">
         <v>1439</v>
@@ -7693,7 +7693,7 @@
         <v>623</v>
       </c>
       <c r="AX66" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY66" t="s">
         <v>1470</v>
@@ -7737,7 +7737,7 @@
         <v>623</v>
       </c>
       <c r="AX67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY67" t="s">
         <v>1471</v>
@@ -7775,7 +7775,7 @@
         <v>623</v>
       </c>
       <c r="AX68" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY68" t="s">
         <v>1469</v>
@@ -7816,7 +7816,7 @@
         <v>623</v>
       </c>
       <c r="AX69" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY69" t="s">
         <v>1412</v>
@@ -7857,7 +7857,7 @@
         <v>623</v>
       </c>
       <c r="AX70" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY70" t="s">
         <v>1468</v>
@@ -7904,7 +7904,7 @@
         <v>623</v>
       </c>
       <c r="AX71" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY71" t="s">
         <v>1470</v>
@@ -7951,7 +7951,7 @@
         <v>52</v>
       </c>
       <c r="AX72" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY72" t="s">
         <v>1471</v>
@@ -7992,7 +7992,7 @@
         <v>63</v>
       </c>
       <c r="AX73" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY73" t="s">
         <v>1469</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="AX74" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY74" t="s">
         <v>1443</v>
@@ -8071,7 +8071,7 @@
         <v>52</v>
       </c>
       <c r="AX75" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY75" t="s">
         <v>1432</v>
@@ -8112,7 +8112,7 @@
         <v>623</v>
       </c>
       <c r="AX76" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY76" t="s">
         <v>1431</v>
@@ -8150,7 +8150,7 @@
         <v>148</v>
       </c>
       <c r="AX77" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY77" t="s">
         <v>1430</v>
@@ -8188,7 +8188,7 @@
         <v>623</v>
       </c>
       <c r="AX78" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY78" t="s">
         <v>1440</v>
@@ -8232,7 +8232,7 @@
         <v>623</v>
       </c>
       <c r="AX79" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY79" t="s">
         <v>1437</v>
@@ -8276,7 +8276,7 @@
         <v>623</v>
       </c>
       <c r="AX80" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY80" t="s">
         <v>1437</v>
@@ -8314,7 +8314,7 @@
         <v>623</v>
       </c>
       <c r="AX81" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY81" t="s">
         <v>1438</v>
@@ -8355,7 +8355,7 @@
         <v>623</v>
       </c>
       <c r="AX82" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY82" t="s">
         <v>1436</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="AX83" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY83" t="s">
         <v>1473</v>
@@ -8434,7 +8434,7 @@
         <v>20</v>
       </c>
       <c r="AX84" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY84" t="s">
         <v>1423</v>
@@ -8475,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="AX85" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY85" t="s">
         <v>1442</v>
@@ -8519,7 +8519,7 @@
         <v>161</v>
       </c>
       <c r="AX86" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY86" t="s">
         <v>1427</v>
@@ -8560,7 +8560,7 @@
         <v>623</v>
       </c>
       <c r="AX87" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY87" t="s">
         <v>1478</v>
@@ -8601,7 +8601,7 @@
         <v>623</v>
       </c>
       <c r="AX88" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY88" t="s">
         <v>1475</v>
@@ -8639,7 +8639,7 @@
         <v>623</v>
       </c>
       <c r="AX89" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY89" t="s">
         <v>1457</v>
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="AX90" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY90" t="s">
         <v>1456</v>
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="AX91" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY91" t="s">
         <v>1414</v>
@@ -8762,7 +8762,7 @@
         <v>-1</v>
       </c>
       <c r="AX92" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY92" t="s">
         <v>1415</v>
@@ -8800,7 +8800,7 @@
         <v>623</v>
       </c>
       <c r="AX93" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY93" t="s">
         <v>1416</v>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
       <c r="AX94" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY94" t="s">
         <v>1413</v>
@@ -8885,7 +8885,7 @@
         <v>20</v>
       </c>
       <c r="AX95" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY95" t="s">
         <v>1461</v>
@@ -8926,7 +8926,7 @@
         <v>20</v>
       </c>
       <c r="AX96" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY96" t="s">
         <v>1439</v>
@@ -8967,7 +8967,7 @@
         <v>20</v>
       </c>
       <c r="AX97" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY97" t="s">
         <v>1460</v>
@@ -9008,7 +9008,7 @@
         <v>20</v>
       </c>
       <c r="AX98" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="AY98" t="s">
         <v>1425</v>
@@ -9052,7 +9052,7 @@
         <v>623</v>
       </c>
       <c r="AX99" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY99" t="s">
         <v>1426</v>
@@ -9096,7 +9096,7 @@
         <v>623</v>
       </c>
       <c r="AX100" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY100" t="s">
         <v>1426</v>
@@ -9140,7 +9140,7 @@
         <v>20</v>
       </c>
       <c r="AX101" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY101" t="s">
         <v>1428</v>
@@ -9181,7 +9181,7 @@
         <v>623</v>
       </c>
       <c r="AX102" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY102" t="s">
         <v>1441</v>
@@ -9219,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="AX103" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY103" t="s">
         <v>1424</v>
@@ -9523,7 +9523,7 @@
         <v>623</v>
       </c>
       <c r="AX111" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY111" t="s">
         <v>1429</v>
@@ -9874,7 +9874,7 @@
         <v>623</v>
       </c>
       <c r="AX120" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY120" t="s">
         <v>1417</v>
@@ -9915,7 +9915,7 @@
         <v>623</v>
       </c>
       <c r="AX121" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY121" t="s">
         <v>1420</v>
@@ -9953,7 +9953,7 @@
         <v>623</v>
       </c>
       <c r="AX122" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY122" t="s">
         <v>1415</v>
@@ -9994,7 +9994,7 @@
         <v>623</v>
       </c>
       <c r="AX123" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY123" t="s">
         <v>1414</v>
@@ -10035,10 +10035,10 @@
         <v>623</v>
       </c>
       <c r="AX124" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY124" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="125" spans="1:51">
@@ -10073,10 +10073,10 @@
         <v>623</v>
       </c>
       <c r="AX125" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY125" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="126" spans="1:51">
@@ -10152,10 +10152,10 @@
         <v>218</v>
       </c>
       <c r="AX127" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AY127" t="s">
         <v>1484</v>
-      </c>
-      <c r="AY127" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="128" spans="1:51">
@@ -10348,7 +10348,7 @@
         <v>623</v>
       </c>
       <c r="AX132" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY132" t="s">
         <v>1474</v>
@@ -10389,7 +10389,7 @@
         <v>623</v>
       </c>
       <c r="AX133" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY133" t="s">
         <v>1479</v>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="AX134" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY134" t="s">
         <v>1476</v>
@@ -10474,7 +10474,7 @@
         <v>623</v>
       </c>
       <c r="AX135" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY135" t="s">
         <v>1477</v>
@@ -10518,7 +10518,7 @@
         <v>52</v>
       </c>
       <c r="AX136" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY136" t="s">
         <v>1449</v>
@@ -10559,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="AX137" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY137" t="s">
         <v>1454</v>
@@ -10597,7 +10597,7 @@
         <v>623</v>
       </c>
       <c r="AX138" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY138" t="s">
         <v>1452</v>
@@ -10635,7 +10635,7 @@
         <v>234</v>
       </c>
       <c r="AX139" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY139" t="s">
         <v>1451</v>
@@ -10676,10 +10676,10 @@
         <v>623</v>
       </c>
       <c r="AX140" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY140" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="141" spans="1:51">
@@ -10714,10 +10714,10 @@
         <v>1</v>
       </c>
       <c r="AX141" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY141" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="142" spans="1:51">
@@ -10755,10 +10755,10 @@
         <v>623</v>
       </c>
       <c r="AX142" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY142" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="143" spans="1:51">
@@ -10796,10 +10796,10 @@
         <v>623</v>
       </c>
       <c r="AX143" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY143" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="144" spans="1:51">
@@ -10834,10 +10834,10 @@
         <v>623</v>
       </c>
       <c r="AX144" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY144" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="145" spans="1:51">
@@ -10875,10 +10875,10 @@
         <v>623</v>
       </c>
       <c r="AX145" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY145" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="146" spans="1:51">
@@ -10913,10 +10913,10 @@
         <v>20</v>
       </c>
       <c r="AX146" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY146" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="147" spans="1:51">
@@ -10951,7 +10951,7 @@
         <v>623</v>
       </c>
       <c r="AX147" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY147" t="s">
         <v>1446</v>
@@ -10992,7 +10992,7 @@
         <v>623</v>
       </c>
       <c r="AX148" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY148" t="s">
         <v>1431</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="AX149" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY149" t="s">
         <v>1443</v>
@@ -11077,7 +11077,7 @@
         <v>249</v>
       </c>
       <c r="AX150" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="AY150" t="s">
         <v>1444</v>
@@ -11115,7 +11115,7 @@
         <v>623</v>
       </c>
       <c r="AX151" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY151" t="s">
         <v>1442</v>
@@ -11156,7 +11156,7 @@
         <v>253</v>
       </c>
       <c r="AX152" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY152" t="s">
         <v>1473</v>
@@ -11200,7 +11200,7 @@
         <v>253</v>
       </c>
       <c r="AX153" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY153" t="s">
         <v>1441</v>
@@ -11238,7 +11238,7 @@
         <v>253</v>
       </c>
       <c r="AX154" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY154" t="s">
         <v>1424</v>
@@ -11440,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="AX159" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY159" t="s">
         <v>1426</v>
@@ -11484,7 +11484,7 @@
         <v>265</v>
       </c>
       <c r="AX160" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY160" t="s">
         <v>1427</v>
@@ -11531,7 +11531,7 @@
         <v>83</v>
       </c>
       <c r="AX161" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY161" t="s">
         <v>1428</v>
@@ -11578,7 +11578,7 @@
         <v>268</v>
       </c>
       <c r="AX162" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY162" t="s">
         <v>1429</v>
@@ -11616,7 +11616,7 @@
         <v>623</v>
       </c>
       <c r="AX163" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY163" t="s">
         <v>1435</v>
@@ -11660,7 +11660,7 @@
         <v>623</v>
       </c>
       <c r="AX164" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY164" t="s">
         <v>1437</v>
@@ -11701,7 +11701,7 @@
         <v>623</v>
       </c>
       <c r="AX165" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY165" t="s">
         <v>1436</v>
@@ -11742,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="AX166" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY166" t="s">
         <v>1434</v>
@@ -11789,7 +11789,7 @@
         <v>623</v>
       </c>
       <c r="AX167" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY167" t="s">
         <v>1455</v>
@@ -11833,7 +11833,7 @@
         <v>623</v>
       </c>
       <c r="AX168" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY168" t="s">
         <v>1454</v>
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="AX169" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY169" t="s">
         <v>1456</v>
@@ -11921,7 +11921,7 @@
         <v>623</v>
       </c>
       <c r="AX170" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY170" t="s">
         <v>1457</v>
@@ -11959,7 +11959,7 @@
         <v>623</v>
       </c>
       <c r="AX171" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY171" t="s">
         <v>1429</v>
@@ -11997,7 +11997,7 @@
         <v>623</v>
       </c>
       <c r="AX172" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY172" t="s">
         <v>1426</v>
@@ -12035,7 +12035,7 @@
         <v>623</v>
       </c>
       <c r="AX173" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY173" t="s">
         <v>1428</v>
@@ -12073,7 +12073,7 @@
         <v>288</v>
       </c>
       <c r="AX174" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY174" t="s">
         <v>1427</v>
@@ -12120,7 +12120,7 @@
         <v>623</v>
       </c>
       <c r="AX175" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY175" t="s">
         <v>1474</v>
@@ -12161,7 +12161,7 @@
         <v>623</v>
       </c>
       <c r="AX176" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY176" t="s">
         <v>1475</v>
@@ -12202,7 +12202,7 @@
         <v>623</v>
       </c>
       <c r="AX177" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY177" t="s">
         <v>1476</v>
@@ -12243,7 +12243,7 @@
         <v>623</v>
       </c>
       <c r="AX178" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY178" t="s">
         <v>1477</v>
@@ -12281,7 +12281,7 @@
         <v>623</v>
       </c>
       <c r="AX179" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY179" t="s">
         <v>1424</v>
@@ -12322,7 +12322,7 @@
         <v>623</v>
       </c>
       <c r="AX180" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY180" t="s">
         <v>1442</v>
@@ -12363,7 +12363,7 @@
         <v>623</v>
       </c>
       <c r="AX181" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY181" t="s">
         <v>1441</v>
@@ -12401,7 +12401,7 @@
         <v>623</v>
       </c>
       <c r="AX182" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY182" t="s">
         <v>1473</v>
@@ -12442,7 +12442,7 @@
         <v>623</v>
       </c>
       <c r="AX183" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY183" t="s">
         <v>1436</v>
@@ -12489,7 +12489,7 @@
         <v>623</v>
       </c>
       <c r="AX184" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY184" t="s">
         <v>1437</v>
@@ -12536,7 +12536,7 @@
         <v>623</v>
       </c>
       <c r="AX185" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY185" t="s">
         <v>1438</v>
@@ -12580,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="AX186" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY186" t="s">
         <v>1440</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="AX187" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY187" t="s">
         <v>1439</v>
@@ -12662,7 +12662,7 @@
         <v>623</v>
       </c>
       <c r="AX188" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY188" t="s">
         <v>1440</v>
@@ -12703,7 +12703,7 @@
         <v>623</v>
       </c>
       <c r="AX189" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY189" t="s">
         <v>1438</v>
@@ -12741,7 +12741,7 @@
         <v>623</v>
       </c>
       <c r="AX190" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY190" t="s">
         <v>1425</v>
@@ -12779,7 +12779,7 @@
         <v>623</v>
       </c>
       <c r="AX191" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY191" t="s">
         <v>1434</v>
@@ -12820,7 +12820,7 @@
         <v>623</v>
       </c>
       <c r="AX192" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY192" t="s">
         <v>1437</v>
@@ -12858,7 +12858,7 @@
         <v>623</v>
       </c>
       <c r="AX193" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY193" t="s">
         <v>1435</v>
@@ -12896,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="AX194" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY194" t="s">
         <v>1436</v>
@@ -12937,7 +12937,7 @@
         <v>623</v>
       </c>
       <c r="AX195" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY195" t="s">
         <v>1437</v>
@@ -12978,7 +12978,7 @@
         <v>623</v>
       </c>
       <c r="AX196" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY196" t="s">
         <v>1434</v>
@@ -13019,7 +13019,7 @@
         <v>623</v>
       </c>
       <c r="AX197" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY197" t="s">
         <v>1435</v>
@@ -13057,7 +13057,7 @@
         <v>623</v>
       </c>
       <c r="AX198" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY198" t="s">
         <v>1436</v>
@@ -13101,7 +13101,7 @@
         <v>623</v>
       </c>
       <c r="AX199" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY199" t="s">
         <v>1452</v>
@@ -13145,7 +13145,7 @@
         <v>623</v>
       </c>
       <c r="AX200" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY200" t="s">
         <v>1455</v>
@@ -13189,7 +13189,7 @@
         <v>623</v>
       </c>
       <c r="AX201" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY201" t="s">
         <v>1453</v>
@@ -13227,7 +13227,7 @@
         <v>623</v>
       </c>
       <c r="AX202" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY202" t="s">
         <v>1454</v>
@@ -13265,7 +13265,7 @@
         <v>326</v>
       </c>
       <c r="AX203" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY203" t="s">
         <v>1423</v>
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="AX204" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY204" t="s">
         <v>1442</v>
@@ -13350,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="AX205" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY205" t="s">
         <v>1473</v>
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="AX206" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY206" t="s">
         <v>1424</v>
@@ -13432,7 +13432,7 @@
         <v>332</v>
       </c>
       <c r="AX207" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY207" t="s">
         <v>1443</v>
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="AX208" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY208" t="s">
         <v>1432</v>
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="AX209" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY209" t="s">
         <v>1429</v>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="AX210" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY210" t="s">
         <v>1430</v>
@@ -13590,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="AX211" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY211" t="s">
         <v>1417</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AX212" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY212" t="s">
         <v>1422</v>
@@ -13678,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="AX213" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY213" t="s">
         <v>1421</v>
@@ -13716,7 +13716,7 @@
         <v>342</v>
       </c>
       <c r="AX214" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY214" t="s">
         <v>1420</v>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="AX215" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY215" t="s">
         <v>1431</v>
@@ -13795,7 +13795,7 @@
         <v>623</v>
       </c>
       <c r="AX216" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY216" t="s">
         <v>1427</v>
@@ -13839,7 +13839,7 @@
         <v>1048</v>
       </c>
       <c r="AX217" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY217" t="s">
         <v>1428</v>
@@ -13880,7 +13880,7 @@
         <v>348</v>
       </c>
       <c r="AX218" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY218" t="s">
         <v>1426</v>
@@ -13921,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="AX219" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY219" t="s">
         <v>1419</v>
@@ -13962,7 +13962,7 @@
         <v>-1</v>
       </c>
       <c r="AX220" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY220" t="s">
         <v>1414</v>
@@ -14003,7 +14003,7 @@
         <v>1</v>
       </c>
       <c r="AX221" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY221" t="s">
         <v>1418</v>
@@ -14044,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="AX222" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="AY222" t="s">
         <v>1415</v>
@@ -14091,7 +14091,7 @@
         <v>623</v>
       </c>
       <c r="AX223" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY223" t="s">
         <v>1463</v>
@@ -14132,7 +14132,7 @@
         <v>623</v>
       </c>
       <c r="AX224" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY224" t="s">
         <v>1462</v>
@@ -14176,7 +14176,7 @@
         <v>623</v>
       </c>
       <c r="AX225" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY225" t="s">
         <v>1464</v>
@@ -14223,7 +14223,7 @@
         <v>623</v>
       </c>
       <c r="AX226" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY226" t="s">
         <v>1465</v>
@@ -14267,7 +14267,7 @@
         <v>623</v>
       </c>
       <c r="AX227" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY227" t="s">
         <v>1425</v>
@@ -14305,7 +14305,7 @@
         <v>623</v>
       </c>
       <c r="AX228" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY228" t="s">
         <v>1438</v>
@@ -14346,7 +14346,7 @@
         <v>623</v>
       </c>
       <c r="AX229" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY229" t="s">
         <v>1440</v>
@@ -14387,7 +14387,7 @@
         <v>623</v>
       </c>
       <c r="AX230" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY230" t="s">
         <v>1439</v>
@@ -14428,7 +14428,7 @@
         <v>623</v>
       </c>
       <c r="AX231" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY231" t="s">
         <v>1435</v>
@@ -14472,7 +14472,7 @@
         <v>1115</v>
       </c>
       <c r="AX232" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY232" t="s">
         <v>1436</v>
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="AX233" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY233" t="s">
         <v>1434</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="AX234" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY234" t="s">
         <v>1437</v>
@@ -14592,7 +14592,7 @@
         <v>623</v>
       </c>
       <c r="AX235" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY235" t="s">
         <v>1414</v>
@@ -14630,7 +14630,7 @@
         <v>623</v>
       </c>
       <c r="AX236" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY236" t="s">
         <v>1415</v>
@@ -14677,7 +14677,7 @@
         <v>623</v>
       </c>
       <c r="AX237" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY237" t="s">
         <v>1416</v>
@@ -14712,7 +14712,7 @@
         <v>374</v>
       </c>
       <c r="AX238" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY238" t="s">
         <v>1417</v>
@@ -14753,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="AX239" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY239" t="s">
         <v>1463</v>
@@ -14794,7 +14794,7 @@
         <v>623</v>
       </c>
       <c r="AX240" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY240" t="s">
         <v>1460</v>
@@ -14835,7 +14835,7 @@
         <v>1</v>
       </c>
       <c r="AX241" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY241" t="s">
         <v>1461</v>
@@ -14870,7 +14870,7 @@
         <v>623</v>
       </c>
       <c r="AX242" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY242" t="s">
         <v>1462</v>
@@ -14911,7 +14911,7 @@
         <v>623</v>
       </c>
       <c r="AX243" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY243" t="s">
         <v>1466</v>
@@ -14955,7 +14955,7 @@
         <v>623</v>
       </c>
       <c r="AX244" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY244" t="s">
         <v>1465</v>
@@ -15002,7 +15002,7 @@
         <v>623</v>
       </c>
       <c r="AX245" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY245" t="s">
         <v>1464</v>
@@ -15043,7 +15043,7 @@
         <v>623</v>
       </c>
       <c r="AX246" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY246" t="s">
         <v>1467</v>
@@ -15939,7 +15939,7 @@
         <v>623</v>
       </c>
       <c r="AX268" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY268" t="s">
         <v>1445</v>
@@ -15980,7 +15980,7 @@
         <v>623</v>
       </c>
       <c r="AX269" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY269" t="s">
         <v>1444</v>
@@ -16018,7 +16018,7 @@
         <v>623</v>
       </c>
       <c r="AX270" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY270" t="s">
         <v>1447</v>
@@ -16059,7 +16059,7 @@
         <v>623</v>
       </c>
       <c r="AX271" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY271" t="s">
         <v>1446</v>
@@ -17919,7 +17919,7 @@
         <v>623</v>
       </c>
       <c r="AX316" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY316" t="s">
         <v>1464</v>
@@ -17966,7 +17966,7 @@
         <v>623</v>
       </c>
       <c r="AX317" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY317" t="s">
         <v>1466</v>
@@ -18010,7 +18010,7 @@
         <v>1</v>
       </c>
       <c r="AX318" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY318" t="s">
         <v>1465</v>
@@ -18054,7 +18054,7 @@
         <v>486</v>
       </c>
       <c r="AX319" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY319" t="s">
         <v>1467</v>
@@ -18092,7 +18092,7 @@
         <v>623</v>
       </c>
       <c r="AX320" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY320" t="s">
         <v>1449</v>
@@ -18130,7 +18130,7 @@
         <v>623</v>
       </c>
       <c r="AX321" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY321" t="s">
         <v>1450</v>
@@ -18174,7 +18174,7 @@
         <v>623</v>
       </c>
       <c r="AX322" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY322" t="s">
         <v>1448</v>
@@ -18212,7 +18212,7 @@
         <v>623</v>
       </c>
       <c r="AX323" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY323" t="s">
         <v>1451</v>
@@ -19426,7 +19426,7 @@
         <v>623</v>
       </c>
       <c r="AX351" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY351" t="s">
         <v>1470</v>
@@ -19464,7 +19464,7 @@
         <v>623</v>
       </c>
       <c r="AX352" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY352" t="s">
         <v>1471</v>
@@ -19505,7 +19505,7 @@
         <v>1</v>
       </c>
       <c r="AX353" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY353" t="s">
         <v>1412</v>
@@ -19543,7 +19543,7 @@
         <v>623</v>
       </c>
       <c r="AX354" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY354" t="s">
         <v>1413</v>
@@ -20366,7 +20366,7 @@
         <v>623</v>
       </c>
       <c r="AX374" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY374" t="s">
         <v>1419</v>
@@ -20407,7 +20407,7 @@
         <v>623</v>
       </c>
       <c r="AX375" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY375" t="s">
         <v>1418</v>
@@ -20448,7 +20448,7 @@
         <v>623</v>
       </c>
       <c r="AX376" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY376" t="s">
         <v>1417</v>
@@ -20486,7 +20486,7 @@
         <v>1</v>
       </c>
       <c r="AX377" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY377" t="s">
         <v>1420</v>
@@ -20524,7 +20524,7 @@
         <v>623</v>
       </c>
       <c r="AX378" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY378" t="s">
         <v>1432</v>
@@ -20562,7 +20562,7 @@
         <v>623</v>
       </c>
       <c r="AX379" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY379" t="s">
         <v>1431</v>
@@ -20600,7 +20600,7 @@
         <v>623</v>
       </c>
       <c r="AX380" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY380" t="s">
         <v>1443</v>
@@ -20638,7 +20638,7 @@
         <v>623</v>
       </c>
       <c r="AX381" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY381" t="s">
         <v>1430</v>
@@ -20682,7 +20682,7 @@
         <v>623</v>
       </c>
       <c r="AX382" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY382" t="s">
         <v>1439</v>
@@ -20723,7 +20723,7 @@
         <v>623</v>
       </c>
       <c r="AX383" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY383" t="s">
         <v>1425</v>
@@ -20770,7 +20770,7 @@
         <v>1</v>
       </c>
       <c r="AX384" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY384" t="s">
         <v>1438</v>
@@ -20811,7 +20811,7 @@
         <v>623</v>
       </c>
       <c r="AX385" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY385" t="s">
         <v>1440</v>
@@ -20855,7 +20855,7 @@
         <v>623</v>
       </c>
       <c r="AX386" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY386" t="s">
         <v>1473</v>
@@ -20899,7 +20899,7 @@
         <v>1</v>
       </c>
       <c r="AX387" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY387" t="s">
         <v>1424</v>
@@ -20940,7 +20940,7 @@
         <v>1</v>
       </c>
       <c r="AX388" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY388" t="s">
         <v>1426</v>
@@ -20975,7 +20975,7 @@
         <v>623</v>
       </c>
       <c r="AX389" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY389" t="s">
         <v>1427</v>
@@ -21010,7 +21010,7 @@
         <v>623</v>
       </c>
       <c r="AX390" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY390" t="s">
         <v>1450</v>
@@ -21051,7 +21051,7 @@
         <v>623</v>
       </c>
       <c r="AX391" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY391" t="s">
         <v>1449</v>
@@ -21089,7 +21089,7 @@
         <v>623</v>
       </c>
       <c r="AX392" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY392" t="s">
         <v>1451</v>
@@ -21124,7 +21124,7 @@
         <v>1</v>
       </c>
       <c r="AX393" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY393" t="s">
         <v>1448</v>
@@ -21159,7 +21159,7 @@
         <v>1</v>
       </c>
       <c r="AX394" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY394" t="s">
         <v>1478</v>
@@ -21197,7 +21197,7 @@
         <v>588</v>
       </c>
       <c r="AX395" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY395" t="s">
         <v>1477</v>
@@ -21238,7 +21238,7 @@
         <v>1</v>
       </c>
       <c r="AX396" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY396" t="s">
         <v>1479</v>
@@ -21276,7 +21276,7 @@
         <v>1</v>
       </c>
       <c r="AX397" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY397" t="s">
         <v>1476</v>
@@ -21314,7 +21314,7 @@
         <v>623</v>
       </c>
       <c r="AX398" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY398" t="s">
         <v>1455</v>
@@ -21352,7 +21352,7 @@
         <v>623</v>
       </c>
       <c r="AX399" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY399" t="s">
         <v>1454</v>
@@ -21399,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="AX400" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY400" t="s">
         <v>1453</v>
@@ -21437,7 +21437,7 @@
         <v>623</v>
       </c>
       <c r="AX401" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY401" t="s">
         <v>1452</v>
@@ -21478,7 +21478,7 @@
         <v>623</v>
       </c>
       <c r="AX402" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY402" t="s">
         <v>1463</v>
@@ -21522,7 +21522,7 @@
         <v>623</v>
       </c>
       <c r="AX403" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY403" t="s">
         <v>1461</v>
@@ -21566,7 +21566,7 @@
         <v>623</v>
       </c>
       <c r="AX404" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY404" t="s">
         <v>1460</v>
@@ -21607,7 +21607,7 @@
         <v>623</v>
       </c>
       <c r="AX405" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AY405" t="s">
         <v>1462</v>
@@ -21648,7 +21648,7 @@
         <v>623</v>
       </c>
       <c r="AX406" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY406" t="s">
         <v>1471</v>
@@ -21692,7 +21692,7 @@
         <v>1</v>
       </c>
       <c r="AX407" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY407" t="s">
         <v>1412</v>
@@ -21736,7 +21736,7 @@
         <v>623</v>
       </c>
       <c r="AX408" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY408" t="s">
         <v>1413</v>
@@ -21777,7 +21777,7 @@
         <v>623</v>
       </c>
       <c r="AX409" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY409" t="s">
         <v>1470</v>
@@ -21982,7 +21982,7 @@
         <v>613</v>
       </c>
       <c r="AX414" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY414" t="s">
         <v>1450</v>
@@ -22026,7 +22026,7 @@
         <v>623</v>
       </c>
       <c r="AX415" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY415" t="s">
         <v>1451</v>
@@ -22064,7 +22064,7 @@
         <v>614</v>
       </c>
       <c r="AX416" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY416" t="s">
         <v>1452</v>
@@ -22102,7 +22102,7 @@
         <v>623</v>
       </c>
       <c r="AX417" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY417" t="s">
         <v>1453</v>
@@ -22143,7 +22143,7 @@
         <v>1</v>
       </c>
       <c r="AX418" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY418" t="s">
         <v>1466</v>
@@ -22184,7 +22184,7 @@
         <v>1</v>
       </c>
       <c r="AX419" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY419" t="s">
         <v>1467</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="AX420" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY420" t="s">
         <v>1468</v>
@@ -22263,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="AX421" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY421" t="s">
         <v>1469</v>
@@ -22304,7 +22304,7 @@
         <v>627</v>
       </c>
       <c r="AX422" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY422" t="s">
         <v>1419</v>
@@ -22339,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="AX423" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY423" t="s">
         <v>1418</v>
@@ -22377,7 +22377,7 @@
         <v>2</v>
       </c>
       <c r="AX424" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY424" t="s">
         <v>1420</v>
@@ -22418,7 +22418,7 @@
         <v>1028</v>
       </c>
       <c r="AX425" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY425" t="s">
         <v>1421</v>
@@ -22456,7 +22456,7 @@
         <v>1</v>
       </c>
       <c r="AX426" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY426" t="s">
         <v>1417</v>
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
       <c r="AX427" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY427" t="s">
         <v>1416</v>
@@ -22535,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="AX428" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY428" t="s">
         <v>1419</v>
@@ -22576,7 +22576,7 @@
         <v>1</v>
       </c>
       <c r="AX429" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY429" t="s">
         <v>1418</v>
@@ -22614,7 +22614,7 @@
         <v>1</v>
       </c>
       <c r="AX430" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY430" t="s">
         <v>1414</v>
@@ -22652,7 +22652,7 @@
         <v>-1</v>
       </c>
       <c r="AX431" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY431" t="s">
         <v>1415</v>
@@ -22693,7 +22693,7 @@
         <v>1</v>
       </c>
       <c r="AX432" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY432" t="s">
         <v>1412</v>
@@ -22734,7 +22734,7 @@
         <v>641</v>
       </c>
       <c r="AX433" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY433" t="s">
         <v>1413</v>
@@ -22775,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="AX434" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY434" t="s">
         <v>1423</v>
@@ -22813,7 +22813,7 @@
         <v>1</v>
       </c>
       <c r="AX435" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY435" t="s">
         <v>1422</v>
@@ -22851,7 +22851,7 @@
         <v>1</v>
       </c>
       <c r="AX436" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY436" t="s">
         <v>1421</v>
@@ -22889,7 +22889,7 @@
         <v>1</v>
       </c>
       <c r="AX437" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY437" t="s">
         <v>1420</v>
@@ -22930,7 +22930,7 @@
         <v>2</v>
       </c>
       <c r="AX438" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY438" t="s">
         <v>1470</v>
@@ -22968,7 +22968,7 @@
         <v>1</v>
       </c>
       <c r="AX439" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY439" t="s">
         <v>1469</v>
@@ -23006,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="AX440" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY440" t="s">
         <v>1468</v>
@@ -23041,7 +23041,7 @@
         <v>2</v>
       </c>
       <c r="AX441" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AY441" t="s">
         <v>1471</v>
@@ -23076,7 +23076,7 @@
         <v>656</v>
       </c>
       <c r="AX442" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY442" t="s">
         <v>1424</v>
@@ -23108,7 +23108,7 @@
         <v>1</v>
       </c>
       <c r="AX443" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY443" t="s">
         <v>1441</v>
@@ -23143,7 +23143,7 @@
         <v>2</v>
       </c>
       <c r="AX444" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY444" t="s">
         <v>1473</v>
@@ -23178,7 +23178,7 @@
         <v>1</v>
       </c>
       <c r="AX445" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY445" t="s">
         <v>1442</v>
@@ -23213,7 +23213,7 @@
         <v>1</v>
       </c>
       <c r="AX446" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY446" t="s">
         <v>1428</v>
@@ -23251,7 +23251,7 @@
         <v>-1</v>
       </c>
       <c r="AX447" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY447" t="s">
         <v>1427</v>
@@ -23286,7 +23286,7 @@
         <v>1</v>
       </c>
       <c r="AX448" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY448" t="s">
         <v>1426</v>
@@ -23324,7 +23324,7 @@
         <v>-1</v>
       </c>
       <c r="AX449" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY449" t="s">
         <v>1429</v>
@@ -23368,7 +23368,7 @@
         <v>1</v>
       </c>
       <c r="AX450" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY450" t="s">
         <v>1447</v>
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="AX451" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY451" t="s">
         <v>1446</v>
@@ -23447,7 +23447,7 @@
         <v>1</v>
       </c>
       <c r="AX452" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY452" t="s">
         <v>1444</v>
@@ -23488,7 +23488,7 @@
         <v>2</v>
       </c>
       <c r="AX453" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY453" t="s">
         <v>1445</v>
@@ -23526,7 +23526,7 @@
         <v>-1</v>
       </c>
       <c r="AX454" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY454" t="s">
         <v>1457</v>
@@ -23567,7 +23567,7 @@
         <v>1</v>
       </c>
       <c r="AX455" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY455" t="s">
         <v>1474</v>
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
       <c r="AX456" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY456" t="s">
         <v>1475</v>
@@ -23643,7 +23643,7 @@
         <v>1034</v>
       </c>
       <c r="AX457" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY457" t="s">
         <v>1456</v>
@@ -23976,7 +23976,7 @@
         <v>-1</v>
       </c>
       <c r="AX466" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY466" t="s">
         <v>1428</v>
@@ -24014,7 +24014,7 @@
         <v>1</v>
       </c>
       <c r="AX467" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY467" t="s">
         <v>1429</v>
@@ -24052,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="AX468" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY468" t="s">
         <v>1430</v>
@@ -24087,7 +24087,7 @@
         <v>1</v>
       </c>
       <c r="AX469" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY469" t="s">
         <v>1431</v>
@@ -24429,7 +24429,7 @@
         <v>1</v>
       </c>
       <c r="AX478" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY478" t="s">
         <v>1425</v>
@@ -24470,7 +24470,7 @@
         <v>-1</v>
       </c>
       <c r="AX479" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY479" t="s">
         <v>1439</v>
@@ -24505,7 +24505,7 @@
         <v>-1</v>
       </c>
       <c r="AX480" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY480" t="s">
         <v>1460</v>
@@ -24543,7 +24543,7 @@
         <v>-1</v>
       </c>
       <c r="AX481" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AY481" t="s">
         <v>1461</v>
@@ -24742,10 +24742,10 @@
         <v>113</v>
       </c>
       <c r="AX486" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY486" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="487" spans="1:51">
@@ -24777,10 +24777,10 @@
         <v>113</v>
       </c>
       <c r="AX487" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY487" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="488" spans="1:51">
@@ -24815,10 +24815,10 @@
         <v>113</v>
       </c>
       <c r="AX488" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY488" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="489" spans="1:51">
@@ -24850,7 +24850,7 @@
         <v>716</v>
       </c>
       <c r="AX489" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AY489" t="s">
         <v>1434</v>
@@ -26053,7 +26053,7 @@
         <v>-1</v>
       </c>
       <c r="AX519" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY519" t="s">
         <v>1466</v>
@@ -26097,7 +26097,7 @@
         <v>1</v>
       </c>
       <c r="AX520" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY520" t="s">
         <v>1467</v>
@@ -26135,7 +26135,7 @@
         <v>-1</v>
       </c>
       <c r="AX521" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY521" t="s">
         <v>1468</v>
@@ -26173,7 +26173,7 @@
         <v>2</v>
       </c>
       <c r="AX522" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY522" t="s">
         <v>1465</v>
@@ -26208,10 +26208,10 @@
         <v>1</v>
       </c>
       <c r="AX523" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY523" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="524" spans="1:51">
@@ -26243,10 +26243,10 @@
         <v>2</v>
       </c>
       <c r="AX524" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY524" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="525" spans="1:51">
@@ -26278,10 +26278,10 @@
         <v>1</v>
       </c>
       <c r="AX525" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY525" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="526" spans="1:51">
@@ -26313,7 +26313,7 @@
         <v>-1</v>
       </c>
       <c r="AX526" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY526" t="s">
         <v>1434</v>
@@ -26357,7 +26357,7 @@
         <v>784</v>
       </c>
       <c r="AX527" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY527" t="s">
         <v>1415</v>
@@ -26395,7 +26395,7 @@
         <v>1</v>
       </c>
       <c r="AX528" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY528" t="s">
         <v>1413</v>
@@ -26427,7 +26427,7 @@
         <v>788</v>
       </c>
       <c r="AX529" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY529" t="s">
         <v>1416</v>
@@ -26462,7 +26462,7 @@
         <v>60</v>
       </c>
       <c r="AX530" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY530" t="s">
         <v>1414</v>
@@ -26500,7 +26500,7 @@
         <v>1</v>
       </c>
       <c r="AX531" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY531" t="s">
         <v>1432</v>
@@ -26541,7 +26541,7 @@
         <v>1</v>
       </c>
       <c r="AX532" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY532" t="s">
         <v>1443</v>
@@ -26579,7 +26579,7 @@
         <v>1</v>
       </c>
       <c r="AX533" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY533" t="s">
         <v>1431</v>
@@ -26617,7 +26617,7 @@
         <v>-1</v>
       </c>
       <c r="AX534" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY534" t="s">
         <v>1444</v>
@@ -26655,7 +26655,7 @@
         <v>1</v>
       </c>
       <c r="AX535" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY535" t="s">
         <v>1475</v>
@@ -26693,7 +26693,7 @@
         <v>1</v>
       </c>
       <c r="AX536" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY536" t="s">
         <v>1476</v>
@@ -26728,7 +26728,7 @@
         <v>1</v>
       </c>
       <c r="AX537" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY537" t="s">
         <v>1457</v>
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="AX538" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY538" t="s">
         <v>1474</v>
@@ -26810,10 +26810,10 @@
         <v>-1</v>
       </c>
       <c r="AX539" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY539" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="540" spans="1:51">
@@ -26848,7 +26848,7 @@
         <v>1</v>
       </c>
       <c r="AX540" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY540" t="s">
         <v>1479</v>
@@ -26886,10 +26886,10 @@
         <v>1</v>
       </c>
       <c r="AX541" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY541" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="542" spans="1:51">
@@ -26921,7 +26921,7 @@
         <v>-1</v>
       </c>
       <c r="AX542" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY542" t="s">
         <v>1478</v>
@@ -26956,7 +26956,7 @@
         <v>1</v>
       </c>
       <c r="AX543" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY543" t="s">
         <v>1422</v>
@@ -26991,7 +26991,7 @@
         <v>1</v>
       </c>
       <c r="AX544" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY544" t="s">
         <v>1421</v>
@@ -27026,7 +27026,7 @@
         <v>-1</v>
       </c>
       <c r="AX545" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY545" t="s">
         <v>1442</v>
@@ -27061,7 +27061,7 @@
         <v>-1</v>
       </c>
       <c r="AX546" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY546" t="s">
         <v>1423</v>
@@ -27102,7 +27102,7 @@
         <v>1</v>
       </c>
       <c r="AX547" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY547" t="s">
         <v>1417</v>
@@ -27143,7 +27143,7 @@
         <v>52</v>
       </c>
       <c r="AX548" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY548" t="s">
         <v>1419</v>
@@ -27175,7 +27175,7 @@
         <v>2</v>
       </c>
       <c r="AX549" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY549" t="s">
         <v>1418</v>
@@ -27216,7 +27216,7 @@
         <v>1</v>
       </c>
       <c r="AX550" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY550" t="s">
         <v>1420</v>
@@ -27257,7 +27257,7 @@
         <v>1</v>
       </c>
       <c r="AX551" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY551" t="s">
         <v>1454</v>
@@ -27301,7 +27301,7 @@
         <v>-1</v>
       </c>
       <c r="AX552" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY552" t="s">
         <v>1457</v>
@@ -27336,7 +27336,7 @@
         <v>-1</v>
       </c>
       <c r="AX553" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY553" t="s">
         <v>1456</v>
@@ -27368,7 +27368,7 @@
         <v>2</v>
       </c>
       <c r="AX554" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY554" t="s">
         <v>1455</v>
@@ -27409,7 +27409,7 @@
         <v>1</v>
       </c>
       <c r="AX555" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY555" t="s">
         <v>1425</v>
@@ -27444,7 +27444,7 @@
         <v>-1</v>
       </c>
       <c r="AX556" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY556" t="s">
         <v>1440</v>
@@ -27479,7 +27479,7 @@
         <v>1</v>
       </c>
       <c r="AX557" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY557" t="s">
         <v>1439</v>
@@ -27511,7 +27511,7 @@
         <v>1</v>
       </c>
       <c r="AX558" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY558" t="s">
         <v>1460</v>
@@ -27549,7 +27549,7 @@
         <v>1</v>
       </c>
       <c r="AX559" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY559" t="s">
         <v>1475</v>
@@ -27584,7 +27584,7 @@
         <v>1</v>
       </c>
       <c r="AX560" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY560" t="s">
         <v>1476</v>
@@ -27622,7 +27622,7 @@
         <v>831</v>
       </c>
       <c r="AX561" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY561" t="s">
         <v>1477</v>
@@ -27657,7 +27657,7 @@
         <v>1</v>
       </c>
       <c r="AX562" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY562" t="s">
         <v>1474</v>
@@ -27695,7 +27695,7 @@
         <v>1</v>
       </c>
       <c r="AX563" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY563" t="s">
         <v>1440</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AX564" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY564" t="s">
         <v>1437</v>
@@ -27768,7 +27768,7 @@
         <v>1</v>
       </c>
       <c r="AX565" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY565" t="s">
         <v>1438</v>
@@ -27803,7 +27803,7 @@
         <v>-1</v>
       </c>
       <c r="AX566" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY566" t="s">
         <v>1425</v>
@@ -27838,7 +27838,7 @@
         <v>1</v>
       </c>
       <c r="AX567" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY567" t="s">
         <v>1412</v>
@@ -27873,7 +27873,7 @@
         <v>-1</v>
       </c>
       <c r="AX568" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY568" t="s">
         <v>1471</v>
@@ -27908,7 +27908,7 @@
         <v>1</v>
       </c>
       <c r="AX569" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY569" t="s">
         <v>1413</v>
@@ -27943,7 +27943,7 @@
         <v>-1</v>
       </c>
       <c r="AX570" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY570" t="s">
         <v>1414</v>
@@ -27984,7 +27984,7 @@
         <v>1</v>
       </c>
       <c r="AX571" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY571" t="s">
         <v>1439</v>
@@ -28025,7 +28025,7 @@
         <v>1</v>
       </c>
       <c r="AX572" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY572" t="s">
         <v>1460</v>
@@ -28063,7 +28063,7 @@
         <v>1</v>
       </c>
       <c r="AX573" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY573" t="s">
         <v>1461</v>
@@ -28101,7 +28101,7 @@
         <v>1</v>
       </c>
       <c r="AX574" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY574" t="s">
         <v>1463</v>
@@ -28136,7 +28136,7 @@
         <v>1</v>
       </c>
       <c r="AX575" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY575" t="s">
         <v>1468</v>
@@ -28177,7 +28177,7 @@
         <v>1</v>
       </c>
       <c r="AX576" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY576" t="s">
         <v>1467</v>
@@ -28215,7 +28215,7 @@
         <v>1</v>
       </c>
       <c r="AX577" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY577" t="s">
         <v>1469</v>
@@ -28253,7 +28253,7 @@
         <v>1</v>
       </c>
       <c r="AX578" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY578" t="s">
         <v>1470</v>
@@ -28288,7 +28288,7 @@
         <v>1</v>
       </c>
       <c r="AX579" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY579" t="s">
         <v>1465</v>
@@ -28326,7 +28326,7 @@
         <v>1</v>
       </c>
       <c r="AX580" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY580" t="s">
         <v>1464</v>
@@ -28364,7 +28364,7 @@
         <v>1</v>
       </c>
       <c r="AX581" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY581" t="s">
         <v>1462</v>
@@ -28402,7 +28402,7 @@
         <v>1</v>
       </c>
       <c r="AX582" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY582" t="s">
         <v>1466</v>
@@ -28443,7 +28443,7 @@
         <v>1</v>
       </c>
       <c r="AX583" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY583" t="s">
         <v>1464</v>
@@ -28481,7 +28481,7 @@
         <v>1</v>
       </c>
       <c r="AX584" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY584" t="s">
         <v>1461</v>
@@ -28516,7 +28516,7 @@
         <v>862</v>
       </c>
       <c r="AX585" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY585" t="s">
         <v>1462</v>
@@ -28551,7 +28551,7 @@
         <v>1</v>
       </c>
       <c r="AX586" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY586" t="s">
         <v>1463</v>
@@ -28592,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="AX587" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY587" t="s">
         <v>1423</v>
@@ -28630,7 +28630,7 @@
         <v>1</v>
       </c>
       <c r="AX588" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY588" t="s">
         <v>1441</v>
@@ -28665,7 +28665,7 @@
         <v>1</v>
       </c>
       <c r="AX589" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY589" t="s">
         <v>1442</v>
@@ -28697,7 +28697,7 @@
         <v>1</v>
       </c>
       <c r="AX590" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AY590" t="s">
         <v>1422</v>
@@ -28735,7 +28735,7 @@
         <v>1</v>
       </c>
       <c r="AX591" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY591" t="s">
         <v>1436</v>
@@ -28767,7 +28767,7 @@
         <v>-1</v>
       </c>
       <c r="AX592" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY592" t="s">
         <v>1438</v>
@@ -28802,7 +28802,7 @@
         <v>-1</v>
       </c>
       <c r="AX593" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY593" t="s">
         <v>1437</v>
@@ -28837,7 +28837,7 @@
         <v>2</v>
       </c>
       <c r="AX594" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY594" t="s">
         <v>1435</v>
@@ -28875,7 +28875,7 @@
         <v>1039</v>
       </c>
       <c r="AX595" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY595" t="s">
         <v>1416</v>
@@ -28913,7 +28913,7 @@
         <v>1</v>
       </c>
       <c r="AX596" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY596" t="s">
         <v>1415</v>
@@ -28951,7 +28951,7 @@
         <v>1</v>
       </c>
       <c r="AX597" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY597" t="s">
         <v>1417</v>
@@ -28989,7 +28989,7 @@
         <v>1</v>
       </c>
       <c r="AX598" t="s">
-        <v>1483</v>
+        <v>1514</v>
       </c>
       <c r="AY598" t="s">
         <v>1418</v>
@@ -29027,7 +29027,7 @@
         <v>1</v>
       </c>
       <c r="AX599" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY599" t="s">
         <v>1447</v>
@@ -29065,7 +29065,7 @@
         <v>883</v>
       </c>
       <c r="AX600" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY600" t="s">
         <v>1445</v>
@@ -29103,7 +29103,7 @@
         <v>1</v>
       </c>
       <c r="AX601" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY601" t="s">
         <v>1446</v>
@@ -29138,7 +29138,7 @@
         <v>1</v>
       </c>
       <c r="AX602" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AY602" t="s">
         <v>1448</v>
@@ -29179,7 +29179,7 @@
         <v>1</v>
       </c>
       <c r="AX603" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY603" t="s">
         <v>1419</v>
@@ -29223,7 +29223,7 @@
         <v>-1</v>
       </c>
       <c r="AX604" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY604" t="s">
         <v>1420</v>
@@ -29264,7 +29264,7 @@
         <v>1</v>
       </c>
       <c r="AX605" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY605" t="s">
         <v>1421</v>
@@ -29308,7 +29308,7 @@
         <v>-1</v>
       </c>
       <c r="AX606" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY606" t="s">
         <v>1418</v>
@@ -29346,7 +29346,7 @@
         <v>1</v>
       </c>
       <c r="AX607" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY607" t="s">
         <v>1436</v>
@@ -29387,7 +29387,7 @@
         <v>1</v>
       </c>
       <c r="AX608" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY608" t="s">
         <v>1437</v>
@@ -29428,7 +29428,7 @@
         <v>1</v>
       </c>
       <c r="AX609" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY609" t="s">
         <v>1438</v>
@@ -29475,7 +29475,7 @@
         <v>1</v>
       </c>
       <c r="AX610" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY610" t="s">
         <v>1435</v>
@@ -29522,7 +29522,7 @@
         <v>1</v>
       </c>
       <c r="AX611" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY611" t="s">
         <v>1466</v>
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="AX612" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY612" t="s">
         <v>1467</v>
@@ -29610,7 +29610,7 @@
         <v>1</v>
       </c>
       <c r="AX613" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY613" t="s">
         <v>1468</v>
@@ -29657,7 +29657,7 @@
         <v>1</v>
       </c>
       <c r="AX614" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY614" t="s">
         <v>1465</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="AX615" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY615" t="s">
         <v>1423</v>
@@ -29730,7 +29730,7 @@
         <v>1</v>
       </c>
       <c r="AX616" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY616" t="s">
         <v>1442</v>
@@ -29771,7 +29771,7 @@
         <v>1</v>
       </c>
       <c r="AX617" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY617" t="s">
         <v>1441</v>
@@ -29812,7 +29812,7 @@
         <v>1</v>
       </c>
       <c r="AX618" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY618" t="s">
         <v>1422</v>
@@ -29853,7 +29853,7 @@
         <v>1</v>
       </c>
       <c r="AX619" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY619" t="s">
         <v>1444</v>
@@ -29888,7 +29888,7 @@
         <v>1</v>
       </c>
       <c r="AX620" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY620" t="s">
         <v>1445</v>
@@ -29929,7 +29929,7 @@
         <v>-1</v>
       </c>
       <c r="AX621" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY621" t="s">
         <v>1434</v>
@@ -29967,7 +29967,7 @@
         <v>1050</v>
       </c>
       <c r="AX622" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AY622" t="s">
         <v>1443</v>
@@ -30011,7 +30011,7 @@
         <v>1</v>
       </c>
       <c r="AX623" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY623" t="s">
         <v>1428</v>
@@ -30049,7 +30049,7 @@
         <v>921</v>
       </c>
       <c r="AX624" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY624" t="s">
         <v>1427</v>
@@ -30090,7 +30090,7 @@
         <v>1</v>
       </c>
       <c r="AX625" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY625" t="s">
         <v>1429</v>
@@ -30128,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="AX626" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY626" t="s">
         <v>1430</v>
@@ -30166,7 +30166,7 @@
         <v>921</v>
       </c>
       <c r="AX627" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY627" t="s">
         <v>1426</v>
@@ -30207,7 +30207,7 @@
         <v>1</v>
       </c>
       <c r="AX628" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY628" t="s">
         <v>1470</v>
@@ -30248,7 +30248,7 @@
         <v>1</v>
       </c>
       <c r="AX629" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY629" t="s">
         <v>1471</v>
@@ -30295,7 +30295,7 @@
         <v>1</v>
       </c>
       <c r="AX630" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY630" t="s">
         <v>1469</v>
@@ -30339,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="AX631" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY631" t="s">
         <v>1412</v>
@@ -30380,7 +30380,7 @@
         <v>1</v>
       </c>
       <c r="AX632" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY632" t="s">
         <v>1468</v>
@@ -30418,7 +30418,7 @@
         <v>1</v>
       </c>
       <c r="AX633" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY633" t="s">
         <v>1466</v>
@@ -30462,7 +30462,7 @@
         <v>-1</v>
       </c>
       <c r="AX634" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY634" t="s">
         <v>1465</v>
@@ -30500,7 +30500,7 @@
         <v>-2</v>
       </c>
       <c r="AX635" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY635" t="s">
         <v>1467</v>
@@ -30544,7 +30544,7 @@
         <v>1</v>
       </c>
       <c r="AX636" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY636" t="s">
         <v>1464</v>
@@ -30579,7 +30579,7 @@
         <v>1</v>
       </c>
       <c r="AX637" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY637" t="s">
         <v>1462</v>
@@ -30620,7 +30620,7 @@
         <v>1</v>
       </c>
       <c r="AX638" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY638" t="s">
         <v>1440</v>
@@ -30664,7 +30664,7 @@
         <v>-1</v>
       </c>
       <c r="AX639" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY639" t="s">
         <v>1425</v>
@@ -30705,7 +30705,7 @@
         <v>-1</v>
       </c>
       <c r="AX640" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY640" t="s">
         <v>1439</v>
@@ -30746,7 +30746,7 @@
         <v>1</v>
       </c>
       <c r="AX641" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY641" t="s">
         <v>1438</v>
@@ -30781,7 +30781,7 @@
         <v>-1</v>
       </c>
       <c r="AX642" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY642" t="s">
         <v>1437</v>
@@ -30819,7 +30819,7 @@
         <v>1</v>
       </c>
       <c r="AX643" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY643" t="s">
         <v>1468</v>
@@ -30857,7 +30857,7 @@
         <v>1</v>
       </c>
       <c r="AX644" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY644" t="s">
         <v>1469</v>
@@ -30895,7 +30895,7 @@
         <v>1</v>
       </c>
       <c r="AX645" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY645" t="s">
         <v>1467</v>
@@ -30927,7 +30927,7 @@
         <v>-1</v>
       </c>
       <c r="AX646" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY646" t="s">
         <v>1466</v>
@@ -30956,7 +30956,7 @@
         <v>1</v>
       </c>
       <c r="AX647" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY647" t="s">
         <v>1470</v>
@@ -30991,7 +30991,7 @@
         <v>1</v>
       </c>
       <c r="AX648" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY648" t="s">
         <v>1441</v>
@@ -31026,7 +31026,7 @@
         <v>1</v>
       </c>
       <c r="AX649" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY649" t="s">
         <v>1424</v>
@@ -31058,7 +31058,7 @@
         <v>1103</v>
       </c>
       <c r="AX650" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY650" t="s">
         <v>1473</v>
@@ -31096,7 +31096,7 @@
         <v>1</v>
       </c>
       <c r="AX651" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY651" t="s">
         <v>1442</v>
@@ -31134,7 +31134,7 @@
         <v>1</v>
       </c>
       <c r="AX652" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY652" t="s">
         <v>1426</v>
@@ -31169,7 +31169,7 @@
         <v>959</v>
       </c>
       <c r="AX653" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY653" t="s">
         <v>1423</v>
@@ -31207,7 +31207,7 @@
         <v>1</v>
       </c>
       <c r="AX654" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY654" t="s">
         <v>1430</v>
@@ -31245,7 +31245,7 @@
         <v>1</v>
       </c>
       <c r="AX655" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY655" t="s">
         <v>1431</v>
@@ -31283,7 +31283,7 @@
         <v>1</v>
       </c>
       <c r="AX656" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY656" t="s">
         <v>1429</v>
@@ -31318,7 +31318,7 @@
         <v>1</v>
       </c>
       <c r="AX657" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY657" t="s">
         <v>1428</v>
@@ -31353,7 +31353,7 @@
         <v>1</v>
       </c>
       <c r="AX658" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY658" t="s">
         <v>1427</v>
@@ -31391,7 +31391,7 @@
         <v>1</v>
       </c>
       <c r="AX659" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY659" t="s">
         <v>1444</v>
@@ -31429,7 +31429,7 @@
         <v>-1</v>
       </c>
       <c r="AX660" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY660" t="s">
         <v>1445</v>
@@ -31473,7 +31473,7 @@
         <v>1</v>
       </c>
       <c r="AX661" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY661" t="s">
         <v>1443</v>
@@ -31511,7 +31511,7 @@
         <v>-1</v>
       </c>
       <c r="AX662" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY662" t="s">
         <v>1446</v>
@@ -31546,7 +31546,7 @@
         <v>-1</v>
       </c>
       <c r="AX663" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY663" t="s">
         <v>1432</v>
@@ -31581,7 +31581,7 @@
         <v>1</v>
       </c>
       <c r="AX664" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY664" t="s">
         <v>1460</v>
@@ -31625,7 +31625,7 @@
         <v>1</v>
       </c>
       <c r="AX665" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY665" t="s">
         <v>1439</v>
@@ -31666,7 +31666,7 @@
         <v>-1</v>
       </c>
       <c r="AX666" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY666" t="s">
         <v>1425</v>
@@ -31704,7 +31704,7 @@
         <v>1</v>
       </c>
       <c r="AX667" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY667" t="s">
         <v>1461</v>
@@ -31739,7 +31739,7 @@
         <v>-1</v>
       </c>
       <c r="AX668" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY668" t="s">
         <v>1440</v>
@@ -31777,7 +31777,7 @@
         <v>1</v>
       </c>
       <c r="AX669" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY669" t="s">
         <v>1439</v>
@@ -31824,7 +31824,7 @@
         <v>1036</v>
       </c>
       <c r="AX670" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY670" t="s">
         <v>1460</v>
@@ -31871,7 +31871,7 @@
         <v>1036</v>
       </c>
       <c r="AX671" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY671" t="s">
         <v>1462</v>
@@ -31915,7 +31915,7 @@
         <v>987</v>
       </c>
       <c r="AX672" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY672" t="s">
         <v>1425</v>
@@ -31953,7 +31953,7 @@
         <v>1</v>
       </c>
       <c r="AX673" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY673" t="s">
         <v>1463</v>
@@ -31991,7 +31991,7 @@
         <v>1</v>
       </c>
       <c r="AX674" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY674" t="s">
         <v>1440</v>
@@ -32029,7 +32029,7 @@
         <v>1</v>
       </c>
       <c r="AX675" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="AY675" t="s">
         <v>1461</v>
@@ -32070,10 +32070,10 @@
         <v>1</v>
       </c>
       <c r="AX676" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY676" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="677" spans="1:51">
@@ -32105,10 +32105,10 @@
         <v>-1</v>
       </c>
       <c r="AX677" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY677" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="678" spans="1:51">
@@ -32146,10 +32146,10 @@
         <v>-1</v>
       </c>
       <c r="AX678" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY678" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="679" spans="1:51">
@@ -32187,10 +32187,10 @@
         <v>1</v>
       </c>
       <c r="AX679" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY679" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="680" spans="1:51">
@@ -32225,7 +32225,7 @@
         <v>1</v>
       </c>
       <c r="AX680" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY680" t="s">
         <v>1479</v>
@@ -32260,7 +32260,7 @@
         <v>1</v>
       </c>
       <c r="AX681" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY681" t="s">
         <v>1455</v>
@@ -32301,7 +32301,7 @@
         <v>1</v>
       </c>
       <c r="AX682" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY682" t="s">
         <v>1454</v>
@@ -32342,7 +32342,7 @@
         <v>1003</v>
       </c>
       <c r="AX683" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY683" t="s">
         <v>1453</v>
@@ -32386,7 +32386,7 @@
         <v>1</v>
       </c>
       <c r="AX684" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY684" t="s">
         <v>1452</v>
@@ -32427,7 +32427,7 @@
         <v>1</v>
       </c>
       <c r="AX685" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY685" t="s">
         <v>1456</v>
@@ -32471,7 +32471,7 @@
         <v>-1</v>
       </c>
       <c r="AX686" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY686" t="s">
         <v>1449</v>
@@ -32509,7 +32509,7 @@
         <v>1</v>
       </c>
       <c r="AX687" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY687" t="s">
         <v>1450</v>
@@ -32550,7 +32550,7 @@
         <v>1</v>
       </c>
       <c r="AX688" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY688" t="s">
         <v>1448</v>
@@ -32591,7 +32591,7 @@
         <v>1</v>
       </c>
       <c r="AX689" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY689" t="s">
         <v>1451</v>
@@ -32626,7 +32626,7 @@
         <v>1</v>
       </c>
       <c r="AX690" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AY690" t="s">
         <v>1447</v>
@@ -32661,7 +32661,7 @@
         <v>1</v>
       </c>
       <c r="AX691" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY691" t="s">
         <v>1436</v>
@@ -32702,7 +32702,7 @@
         <v>1</v>
       </c>
       <c r="AX692" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY692" t="s">
         <v>1437</v>
@@ -32743,7 +32743,7 @@
         <v>1</v>
       </c>
       <c r="AX693" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY693" t="s">
         <v>1438</v>
@@ -32784,7 +32784,7 @@
         <v>1</v>
       </c>
       <c r="AX694" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY694" t="s">
         <v>1435</v>
@@ -32825,7 +32825,7 @@
         <v>1</v>
       </c>
       <c r="AX695" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY695" t="s">
         <v>1434</v>
@@ -32863,7 +32863,7 @@
         <v>1</v>
       </c>
       <c r="AX696" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY696" t="s">
         <v>1413</v>
@@ -32901,7 +32901,7 @@
         <v>-1</v>
       </c>
       <c r="AX697" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY697" t="s">
         <v>1414</v>
@@ -32942,7 +32942,7 @@
         <v>1</v>
       </c>
       <c r="AX698" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY698" t="s">
         <v>1415</v>
@@ -32980,7 +32980,7 @@
         <v>1</v>
       </c>
       <c r="AX699" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY699" t="s">
         <v>1412</v>
@@ -33018,7 +33018,7 @@
         <v>1</v>
       </c>
       <c r="AX700" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AY700" t="s">
         <v>1471</v>
@@ -33053,7 +33053,7 @@
         <v>-1</v>
       </c>
       <c r="AX701" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY701" t="s">
         <v>1425</v>
@@ -33091,7 +33091,7 @@
         <v>1</v>
       </c>
       <c r="AX702" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY702" t="s">
         <v>1439</v>
@@ -33123,7 +33123,7 @@
         <v>1</v>
       </c>
       <c r="AX703" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY703" t="s">
         <v>1460</v>
@@ -33155,7 +33155,7 @@
         <v>1</v>
       </c>
       <c r="AX704" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY704" t="s">
         <v>1461</v>
@@ -33190,7 +33190,7 @@
         <v>1</v>
       </c>
       <c r="AX705" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY705" t="s">
         <v>1465</v>
@@ -33225,7 +33225,7 @@
         <v>2</v>
       </c>
       <c r="AX706" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY706" t="s">
         <v>1464</v>
@@ -33260,7 +33260,7 @@
         <v>1</v>
       </c>
       <c r="AX707" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY707" t="s">
         <v>1462</v>
@@ -33295,7 +33295,7 @@
         <v>1</v>
       </c>
       <c r="AX708" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY708" t="s">
         <v>1463</v>
@@ -33336,7 +33336,7 @@
         <v>1</v>
       </c>
       <c r="AX709" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY709" t="s">
         <v>1450</v>
@@ -33371,7 +33371,7 @@
         <v>2</v>
       </c>
       <c r="AX710" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY710" t="s">
         <v>1451</v>
@@ -33406,7 +33406,7 @@
         <v>1</v>
       </c>
       <c r="AX711" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY711" t="s">
         <v>1449</v>
@@ -33447,7 +33447,7 @@
         <v>1</v>
       </c>
       <c r="AX712" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY712" t="s">
         <v>1448</v>
@@ -33482,7 +33482,7 @@
         <v>1</v>
       </c>
       <c r="AX713" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AY713" t="s">
         <v>1461</v>
@@ -33523,7 +33523,7 @@
         <v>-1</v>
       </c>
       <c r="AX714" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AY714" t="s">
         <v>1438</v>
@@ -33561,7 +33561,7 @@
         <v>1</v>
       </c>
       <c r="AX715" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AY715" t="s">
         <v>1435</v>
@@ -33605,7 +33605,7 @@
         <v>1</v>
       </c>
       <c r="AX716" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AY716" t="s">
         <v>1434</v>
@@ -33643,7 +33643,7 @@
         <v>1</v>
       </c>
       <c r="AX717" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY717" t="s">
         <v>1440</v>
@@ -33678,7 +33678,7 @@
         <v>1</v>
       </c>
       <c r="AX718" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY718" t="s">
         <v>1438</v>
@@ -33713,7 +33713,7 @@
         <v>1</v>
       </c>
       <c r="AX719" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY719" t="s">
         <v>1437</v>
@@ -33754,7 +33754,7 @@
         <v>1</v>
       </c>
       <c r="AX720" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY720" t="s">
         <v>1436</v>
@@ -33792,7 +33792,7 @@
         <v>1</v>
       </c>
       <c r="AX721" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY721" t="s">
         <v>1435</v>
@@ -33824,7 +33824,7 @@
         <v>1</v>
       </c>
       <c r="AX722" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY722" t="s">
         <v>1434</v>
@@ -33859,7 +33859,7 @@
         <v>1</v>
       </c>
       <c r="AX723" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY723" t="s">
         <v>1449</v>
@@ -33891,7 +33891,7 @@
         <v>1</v>
       </c>
       <c r="AX724" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="AY724" t="s">
         <v>1448</v>
@@ -33935,7 +33935,7 @@
         <v>1</v>
       </c>
       <c r="AX725" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY725" t="s">
         <v>1471</v>
@@ -33979,7 +33979,7 @@
         <v>1</v>
       </c>
       <c r="AX726" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY726" t="s">
         <v>1412</v>
@@ -34023,7 +34023,7 @@
         <v>1</v>
       </c>
       <c r="AX727" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY727" t="s">
         <v>1413</v>
@@ -34064,7 +34064,7 @@
         <v>1</v>
       </c>
       <c r="AX728" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY728" t="s">
         <v>1470</v>
@@ -34099,7 +34099,7 @@
         <v>1</v>
       </c>
       <c r="AX729" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY729" t="s">
         <v>1467</v>
@@ -34131,7 +34131,7 @@
         <v>1</v>
       </c>
       <c r="AX730" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY730" t="s">
         <v>1466</v>
@@ -34163,7 +34163,7 @@
         <v>1</v>
       </c>
       <c r="AX731" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY731" t="s">
         <v>1468</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AX732" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY732" t="s">
         <v>1469</v>
@@ -34236,7 +34236,7 @@
         <v>1</v>
       </c>
       <c r="AX733" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY733" t="s">
         <v>1464</v>
@@ -34277,7 +34277,7 @@
         <v>-1</v>
       </c>
       <c r="AX734" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY734" t="s">
         <v>1462</v>
@@ -34321,7 +34321,7 @@
         <v>-1</v>
       </c>
       <c r="AX735" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY735" t="s">
         <v>1465</v>
@@ -34362,7 +34362,7 @@
         <v>-1</v>
       </c>
       <c r="AX736" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY736" t="s">
         <v>1463</v>
@@ -34817,7 +34817,7 @@
         <v>1</v>
       </c>
       <c r="AX749" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY749" t="s">
         <v>1419</v>
@@ -34858,7 +34858,7 @@
         <v>1</v>
       </c>
       <c r="AX750" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY750" t="s">
         <v>1420</v>
@@ -34899,7 +34899,7 @@
         <v>1</v>
       </c>
       <c r="AX751" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY751" t="s">
         <v>1421</v>
@@ -34934,7 +34934,7 @@
         <v>1</v>
       </c>
       <c r="AX752" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AY752" t="s">
         <v>1418</v>
@@ -35270,7 +35270,7 @@
         <v>1</v>
       </c>
       <c r="AX761" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY761" t="s">
         <v>1437</v>
@@ -35308,7 +35308,7 @@
         <v>-1</v>
       </c>
       <c r="AX762" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY762" t="s">
         <v>1435</v>
@@ -35343,7 +35343,7 @@
         <v>-1</v>
       </c>
       <c r="AX763" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY763" t="s">
         <v>1436</v>
@@ -35384,7 +35384,7 @@
         <v>1</v>
       </c>
       <c r="AX764" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY764" t="s">
         <v>1434</v>
@@ -35419,7 +35419,7 @@
         <v>-1</v>
       </c>
       <c r="AX765" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY765" t="s">
         <v>1463</v>
@@ -35454,7 +35454,7 @@
         <v>-1</v>
       </c>
       <c r="AX766" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY766" t="s">
         <v>1462</v>
@@ -35489,7 +35489,7 @@
         <v>1</v>
       </c>
       <c r="AX767" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY767" t="s">
         <v>1464</v>
@@ -35524,7 +35524,7 @@
         <v>1</v>
       </c>
       <c r="AX768" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="AY768" t="s">
         <v>1465</v>
@@ -35556,7 +35556,7 @@
         <v>1</v>
       </c>
       <c r="AX769" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY769" t="s">
         <v>1442</v>
@@ -35594,7 +35594,7 @@
         <v>1</v>
       </c>
       <c r="AX770" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY770" t="s">
         <v>1423</v>
@@ -35626,7 +35626,7 @@
         <v>1</v>
       </c>
       <c r="AX771" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY771" t="s">
         <v>1422</v>
@@ -35661,7 +35661,7 @@
         <v>1</v>
       </c>
       <c r="AX772" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY772" t="s">
         <v>1421</v>
@@ -35696,7 +35696,7 @@
         <v>1</v>
       </c>
       <c r="AX773" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY773" t="s">
         <v>1470</v>
@@ -35731,7 +35731,7 @@
         <v>1</v>
       </c>
       <c r="AX774" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY774" t="s">
         <v>1469</v>
@@ -35769,7 +35769,7 @@
         <v>1</v>
       </c>
       <c r="AX775" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY775" t="s">
         <v>1468</v>
@@ -35807,7 +35807,7 @@
         <v>1</v>
       </c>
       <c r="AX776" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY776" t="s">
         <v>1467</v>
@@ -35842,7 +35842,7 @@
         <v>1</v>
       </c>
       <c r="AX777" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY777" t="s">
         <v>1418</v>
@@ -35877,7 +35877,7 @@
         <v>1</v>
       </c>
       <c r="AX778" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY778" t="s">
         <v>1417</v>
@@ -35918,7 +35918,7 @@
         <v>1</v>
       </c>
       <c r="AX779" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY779" t="s">
         <v>1416</v>
@@ -35953,7 +35953,7 @@
         <v>-1</v>
       </c>
       <c r="AX780" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="AY780" t="s">
         <v>1415</v>
@@ -35994,7 +35994,7 @@
         <v>-1</v>
       </c>
       <c r="AX781" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY781" t="s">
         <v>1427</v>
@@ -36035,7 +36035,7 @@
         <v>1</v>
       </c>
       <c r="AX782" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY782" t="s">
         <v>1442</v>
@@ -36067,7 +36067,7 @@
         <v>1224</v>
       </c>
       <c r="AX783" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY783" t="s">
         <v>1421</v>
@@ -36108,7 +36108,7 @@
         <v>1224</v>
       </c>
       <c r="AX784" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY784" t="s">
         <v>1420</v>
@@ -36149,7 +36149,7 @@
         <v>-1</v>
       </c>
       <c r="AX785" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY785" t="s">
         <v>1463</v>
@@ -36187,7 +36187,7 @@
         <v>-1</v>
       </c>
       <c r="AX786" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY786" t="s">
         <v>1438</v>
@@ -36234,7 +36234,7 @@
         <v>1</v>
       </c>
       <c r="AX787" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY787" t="s">
         <v>1435</v>
@@ -36269,7 +36269,7 @@
         <v>2</v>
       </c>
       <c r="AX788" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY788" t="s">
         <v>1434</v>
@@ -36310,7 +36310,7 @@
         <v>1</v>
       </c>
       <c r="AX789" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AY789" t="s">
         <v>1463</v>
@@ -36345,7 +36345,7 @@
         <v>1</v>
       </c>
       <c r="AX790" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY790" t="s">
         <v>1438</v>
@@ -36383,7 +36383,7 @@
         <v>1</v>
       </c>
       <c r="AX791" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY791" t="s">
         <v>1435</v>
@@ -36421,7 +36421,7 @@
         <v>1</v>
       </c>
       <c r="AX792" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AY792" t="s">
         <v>1434</v>
@@ -36456,7 +36456,7 @@
         <v>1</v>
       </c>
       <c r="AX793" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY793" t="s">
         <v>1451</v>
@@ -36497,7 +36497,7 @@
         <v>-1</v>
       </c>
       <c r="AX794" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY794" t="s">
         <v>1446</v>
@@ -36532,7 +36532,7 @@
         <v>-1</v>
       </c>
       <c r="AX795" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY795" t="s">
         <v>1443</v>
@@ -36567,7 +36567,7 @@
         <v>2</v>
       </c>
       <c r="AX796" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY796" t="s">
         <v>1432</v>
@@ -36602,7 +36602,7 @@
         <v>1</v>
       </c>
       <c r="AX797" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY797" t="s">
         <v>1415</v>
@@ -36643,7 +36643,7 @@
         <v>-1</v>
       </c>
       <c r="AX798" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY798" t="s">
         <v>1470</v>
@@ -36681,7 +36681,7 @@
         <v>1</v>
       </c>
       <c r="AX799" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY799" t="s">
         <v>1467</v>
@@ -36719,7 +36719,7 @@
         <v>1</v>
       </c>
       <c r="AX800" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY800" t="s">
         <v>1466</v>
@@ -36760,7 +36760,7 @@
         <v>1</v>
       </c>
       <c r="AX801" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY801" t="s">
         <v>1415</v>
@@ -36798,7 +36798,7 @@
         <v>-1</v>
       </c>
       <c r="AX802" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY802" t="s">
         <v>1470</v>
@@ -36836,7 +36836,7 @@
         <v>1</v>
       </c>
       <c r="AX803" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY803" t="s">
         <v>1467</v>
@@ -36880,7 +36880,7 @@
         <v>1</v>
       </c>
       <c r="AX804" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY804" t="s">
         <v>1466</v>
@@ -36918,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AX805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY805" t="s">
         <v>1427</v>
@@ -36962,7 +36962,7 @@
         <v>1</v>
       </c>
       <c r="AX806" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY806" t="s">
         <v>1442</v>
@@ -37000,7 +37000,7 @@
         <v>1</v>
       </c>
       <c r="AX807" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY807" t="s">
         <v>1421</v>
@@ -37038,7 +37038,7 @@
         <v>1256</v>
       </c>
       <c r="AX808" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY808" t="s">
         <v>1420</v>
@@ -37076,7 +37076,7 @@
         <v>-1</v>
       </c>
       <c r="AX809" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY809" t="s">
         <v>1451</v>
@@ -37114,7 +37114,7 @@
         <v>1</v>
       </c>
       <c r="AX810" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY810" t="s">
         <v>1446</v>
@@ -37149,7 +37149,7 @@
         <v>-1</v>
       </c>
       <c r="AX811" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY811" t="s">
         <v>1443</v>
@@ -37190,7 +37190,7 @@
         <v>1</v>
       </c>
       <c r="AX812" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AY812" t="s">
         <v>1432</v>
@@ -37228,7 +37228,7 @@
         <v>2</v>
       </c>
       <c r="AX813" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY813" t="s">
         <v>1461</v>
@@ -37263,7 +37263,7 @@
         <v>-1</v>
       </c>
       <c r="AX814" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY814" t="s">
         <v>1438</v>
@@ -37298,7 +37298,7 @@
         <v>1</v>
       </c>
       <c r="AX815" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY815" t="s">
         <v>1435</v>
@@ -37336,7 +37336,7 @@
         <v>2</v>
       </c>
       <c r="AX816" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AY816" t="s">
         <v>1434</v>
@@ -37371,7 +37371,7 @@
         <v>-1</v>
       </c>
       <c r="AX817" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY817" t="s">
         <v>1461</v>
@@ -37409,7 +37409,7 @@
         <v>1</v>
       </c>
       <c r="AX818" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY818" t="s">
         <v>1438</v>
@@ -37444,7 +37444,7 @@
         <v>1</v>
       </c>
       <c r="AX819" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY819" t="s">
         <v>1435</v>
@@ -37482,7 +37482,7 @@
         <v>1</v>
       </c>
       <c r="AX820" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY820" t="s">
         <v>1434</v>
@@ -37526,7 +37526,7 @@
         <v>1</v>
       </c>
       <c r="AX821" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY821" t="s">
         <v>1427</v>
@@ -37564,7 +37564,7 @@
         <v>-1</v>
       </c>
       <c r="AX822" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY822" t="s">
         <v>1442</v>
@@ -37599,7 +37599,7 @@
         <v>1</v>
       </c>
       <c r="AX823" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY823" t="s">
         <v>1421</v>
@@ -37640,7 +37640,7 @@
         <v>1</v>
       </c>
       <c r="AX824" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY824" t="s">
         <v>1420</v>
@@ -37675,7 +37675,7 @@
         <v>-1</v>
       </c>
       <c r="AX825" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY825" t="s">
         <v>1451</v>
@@ -37713,7 +37713,7 @@
         <v>1</v>
       </c>
       <c r="AX826" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY826" t="s">
         <v>1446</v>
@@ -37748,7 +37748,7 @@
         <v>1</v>
       </c>
       <c r="AX827" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY827" t="s">
         <v>1443</v>
@@ -37786,7 +37786,7 @@
         <v>1</v>
       </c>
       <c r="AX828" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY828" t="s">
         <v>1432</v>
@@ -37824,7 +37824,7 @@
         <v>-1</v>
       </c>
       <c r="AX829" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY829" t="s">
         <v>1470</v>
@@ -37862,7 +37862,7 @@
         <v>1</v>
       </c>
       <c r="AX830" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY830" t="s">
         <v>1415</v>
@@ -37900,7 +37900,7 @@
         <v>1</v>
       </c>
       <c r="AX831" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY831" t="s">
         <v>1467</v>
@@ -37938,7 +37938,7 @@
         <v>1</v>
       </c>
       <c r="AX832" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="AY832" t="s">
         <v>1466</v>
@@ -37973,7 +37973,7 @@
         <v>1</v>
       </c>
       <c r="AX833" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY833" t="s">
         <v>1428</v>
@@ -38005,7 +38005,7 @@
         <v>1</v>
       </c>
       <c r="AX834" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY834" t="s">
         <v>1427</v>
@@ -38040,7 +38040,7 @@
         <v>1</v>
       </c>
       <c r="AX835" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY835" t="s">
         <v>1429</v>
@@ -38078,7 +38078,7 @@
         <v>1</v>
       </c>
       <c r="AX836" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY836" t="s">
         <v>1426</v>
@@ -38113,7 +38113,7 @@
         <v>1</v>
       </c>
       <c r="AX837" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY837" t="s">
         <v>1423</v>
@@ -38151,7 +38151,7 @@
         <v>1</v>
       </c>
       <c r="AX838" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY838" t="s">
         <v>1421</v>
@@ -38186,7 +38186,7 @@
         <v>1</v>
       </c>
       <c r="AX839" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY839" t="s">
         <v>1422</v>
@@ -38224,7 +38224,7 @@
         <v>-1</v>
       </c>
       <c r="AX840" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY840" t="s">
         <v>1420</v>
@@ -38259,7 +38259,7 @@
         <v>1</v>
       </c>
       <c r="AX841" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY841" t="s">
         <v>1447</v>
@@ -38297,7 +38297,7 @@
         <v>-1</v>
       </c>
       <c r="AX842" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY842" t="s">
         <v>1446</v>
@@ -38338,7 +38338,7 @@
         <v>1</v>
       </c>
       <c r="AX843" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY843" t="s">
         <v>1445</v>
@@ -38379,7 +38379,7 @@
         <v>-1</v>
       </c>
       <c r="AX844" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY844" t="s">
         <v>1444</v>
@@ -38411,7 +38411,7 @@
         <v>1</v>
       </c>
       <c r="AX845" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY845" t="s">
         <v>1473</v>
@@ -38443,7 +38443,7 @@
         <v>-1</v>
       </c>
       <c r="AX846" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY846" t="s">
         <v>1441</v>
@@ -38481,7 +38481,7 @@
         <v>1</v>
       </c>
       <c r="AX847" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY847" t="s">
         <v>1424</v>
@@ -38516,7 +38516,7 @@
         <v>1</v>
       </c>
       <c r="AX848" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY848" t="s">
         <v>1442</v>
@@ -38557,7 +38557,7 @@
         <v>1</v>
       </c>
       <c r="AX849" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY849" t="s">
         <v>1432</v>
@@ -38595,7 +38595,7 @@
         <v>1</v>
       </c>
       <c r="AX850" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY850" t="s">
         <v>1443</v>
@@ -38633,7 +38633,7 @@
         <v>-1</v>
       </c>
       <c r="AX851" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY851" t="s">
         <v>1431</v>
@@ -38671,7 +38671,7 @@
         <v>1</v>
       </c>
       <c r="AX852" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AY852" t="s">
         <v>1430</v>
@@ -38709,7 +38709,7 @@
         <v>1</v>
       </c>
       <c r="AX853" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY853" t="s">
         <v>1436</v>
@@ -38741,7 +38741,7 @@
         <v>1</v>
       </c>
       <c r="AX854" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY854" t="s">
         <v>1437</v>
@@ -38776,7 +38776,7 @@
         <v>2</v>
       </c>
       <c r="AX855" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY855" t="s">
         <v>1435</v>
@@ -38811,7 +38811,7 @@
         <v>1</v>
       </c>
       <c r="AX856" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY856" t="s">
         <v>1434</v>
@@ -38849,7 +38849,7 @@
         <v>1</v>
       </c>
       <c r="AX857" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY857" t="s">
         <v>1463</v>
@@ -38887,7 +38887,7 @@
         <v>1</v>
       </c>
       <c r="AX858" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY858" t="s">
         <v>1462</v>
@@ -38925,7 +38925,7 @@
         <v>1</v>
       </c>
       <c r="AX859" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY859" t="s">
         <v>1461</v>
@@ -38963,7 +38963,7 @@
         <v>1</v>
       </c>
       <c r="AX860" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY860" t="s">
         <v>1460</v>
@@ -38998,7 +38998,7 @@
         <v>-1</v>
       </c>
       <c r="AX861" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY861" t="s">
         <v>1466</v>
@@ -39036,7 +39036,7 @@
         <v>1</v>
       </c>
       <c r="AX862" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY862" t="s">
         <v>1467</v>
@@ -39071,7 +39071,7 @@
         <v>1</v>
       </c>
       <c r="AX863" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY863" t="s">
         <v>1465</v>
@@ -39106,7 +39106,7 @@
         <v>-1</v>
       </c>
       <c r="AX864" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY864" t="s">
         <v>1464</v>
@@ -39141,7 +39141,7 @@
         <v>1</v>
       </c>
       <c r="AX865" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY865" t="s">
         <v>1425</v>
@@ -39179,7 +39179,7 @@
         <v>1</v>
       </c>
       <c r="AX866" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY866" t="s">
         <v>1439</v>
@@ -39217,7 +39217,7 @@
         <v>1</v>
       </c>
       <c r="AX867" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY867" t="s">
         <v>1440</v>
@@ -39258,7 +39258,7 @@
         <v>2</v>
       </c>
       <c r="AX868" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY868" t="s">
         <v>1438</v>
@@ -39296,7 +39296,7 @@
         <v>-1</v>
       </c>
       <c r="AX869" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY869" t="s">
         <v>1470</v>
@@ -39331,7 +39331,7 @@
         <v>2</v>
       </c>
       <c r="AX870" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY870" t="s">
         <v>1471</v>
@@ -39369,7 +39369,7 @@
         <v>2</v>
       </c>
       <c r="AX871" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY871" t="s">
         <v>1469</v>
@@ -39404,7 +39404,7 @@
         <v>1</v>
       </c>
       <c r="AX872" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AY872" t="s">
         <v>1468</v>
@@ -39439,7 +39439,7 @@
         <v>1</v>
       </c>
       <c r="AX873" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY873" t="s">
         <v>1423</v>
@@ -39480,7 +39480,7 @@
         <v>1</v>
       </c>
       <c r="AX874" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY874" t="s">
         <v>1422</v>
@@ -39518,7 +39518,7 @@
         <v>1</v>
       </c>
       <c r="AX875" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY875" t="s">
         <v>1421</v>
@@ -39556,7 +39556,7 @@
         <v>1</v>
       </c>
       <c r="AX876" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY876" t="s">
         <v>1420</v>
@@ -39594,7 +39594,7 @@
         <v>-1</v>
       </c>
       <c r="AX877" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY877" t="s">
         <v>1465</v>
@@ -39635,7 +39635,7 @@
         <v>1</v>
       </c>
       <c r="AX878" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY878" t="s">
         <v>1464</v>
@@ -39679,7 +39679,7 @@
         <v>-1</v>
       </c>
       <c r="AX879" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY879" t="s">
         <v>1467</v>
@@ -39717,7 +39717,7 @@
         <v>-1</v>
       </c>
       <c r="AX880" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY880" t="s">
         <v>1466</v>
@@ -39758,7 +39758,7 @@
         <v>1</v>
       </c>
       <c r="AX881" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY881" t="s">
         <v>1438</v>
@@ -39793,7 +39793,7 @@
         <v>-1</v>
       </c>
       <c r="AX882" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY882" t="s">
         <v>1440</v>
@@ -39837,7 +39837,7 @@
         <v>1</v>
       </c>
       <c r="AX883" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY883" t="s">
         <v>1425</v>
@@ -39875,7 +39875,7 @@
         <v>-1</v>
       </c>
       <c r="AX884" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY884" t="s">
         <v>1439</v>
@@ -39913,7 +39913,7 @@
         <v>1</v>
       </c>
       <c r="AX885" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY885" t="s">
         <v>1417</v>
@@ -39948,7 +39948,7 @@
         <v>-1</v>
       </c>
       <c r="AX886" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY886" t="s">
         <v>1418</v>
@@ -39986,7 +39986,7 @@
         <v>-1</v>
       </c>
       <c r="AX887" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY887" t="s">
         <v>1419</v>
@@ -40021,7 +40021,7 @@
         <v>1</v>
       </c>
       <c r="AX888" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY888" t="s">
         <v>1416</v>
@@ -40053,7 +40053,7 @@
         <v>1</v>
       </c>
       <c r="AX889" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY889" t="s">
         <v>1434</v>
@@ -40085,7 +40085,7 @@
         <v>1</v>
       </c>
       <c r="AX890" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY890" t="s">
         <v>1435</v>
@@ -40120,7 +40120,7 @@
         <v>1</v>
       </c>
       <c r="AX891" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY891" t="s">
         <v>1436</v>
@@ -40155,7 +40155,7 @@
         <v>1</v>
       </c>
       <c r="AX892" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY892" t="s">
         <v>1437</v>
@@ -40187,7 +40187,7 @@
         <v>1</v>
       </c>
       <c r="AX893" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY893" t="s">
         <v>1460</v>
@@ -40228,7 +40228,7 @@
         <v>1</v>
       </c>
       <c r="AX894" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY894" t="s">
         <v>1461</v>
@@ -40266,7 +40266,7 @@
         <v>1</v>
       </c>
       <c r="AX895" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY895" t="s">
         <v>1463</v>
@@ -40301,7 +40301,7 @@
         <v>1</v>
       </c>
       <c r="AX896" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY896" t="s">
         <v>1462</v>
@@ -40345,7 +40345,7 @@
         <v>1</v>
       </c>
       <c r="AX897" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY897" t="s">
         <v>1470</v>
@@ -40386,7 +40386,7 @@
         <v>1</v>
       </c>
       <c r="AX898" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY898" t="s">
         <v>1471</v>
@@ -40424,7 +40424,7 @@
         <v>2</v>
       </c>
       <c r="AX899" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY899" t="s">
         <v>1468</v>
@@ -40462,7 +40462,7 @@
         <v>2</v>
       </c>
       <c r="AX900" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY900" t="s">
         <v>1469</v>
@@ -40497,7 +40497,7 @@
         <v>-1</v>
       </c>
       <c r="AX901" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY901" t="s">
         <v>1442</v>
@@ -40535,7 +40535,7 @@
         <v>1</v>
       </c>
       <c r="AX902" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY902" t="s">
         <v>1441</v>
@@ -40573,7 +40573,7 @@
         <v>1</v>
       </c>
       <c r="AX903" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY903" t="s">
         <v>1473</v>
@@ -40608,7 +40608,7 @@
         <v>1</v>
       </c>
       <c r="AX904" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY904" t="s">
         <v>1424</v>
@@ -40646,7 +40646,7 @@
         <v>1</v>
       </c>
       <c r="AX905" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY905" t="s">
         <v>1415</v>
@@ -40681,7 +40681,7 @@
         <v>-1</v>
       </c>
       <c r="AX906" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY906" t="s">
         <v>1412</v>
@@ -40719,7 +40719,7 @@
         <v>1</v>
       </c>
       <c r="AX907" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY907" t="s">
         <v>1413</v>
@@ -40757,7 +40757,7 @@
         <v>1</v>
       </c>
       <c r="AX908" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="AY908" t="s">
         <v>1414</v>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6325" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="1551">
   <si>
     <t>Team</t>
   </si>
@@ -4563,6 +4563,114 @@
   </si>
   <si>
     <t>fearitself,jpg</t>
+  </si>
+  <si>
+    <t>Inhumans</t>
+  </si>
+  <si>
+    <t>Declaration of War</t>
+  </si>
+  <si>
+    <t>The King's Speech</t>
+  </si>
+  <si>
+    <t>Break the Silence</t>
+  </si>
+  <si>
+    <t>Wordless Murmur</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Throne's Favor</t>
+  </si>
+  <si>
+    <t>blackbolt,jpg</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Elemental princess</t>
+  </si>
+  <si>
+    <t>Weave four into one</t>
+  </si>
+  <si>
+    <t>Earth, air, fire and water</t>
+  </si>
+  <si>
+    <t>Master the four elements</t>
+  </si>
+  <si>
+    <t>crystal,jpg</t>
+  </si>
+  <si>
+    <t>Gorgon</t>
+  </si>
+  <si>
+    <t>Trample underhoof</t>
+  </si>
+  <si>
+    <t>Lead the inhuman elite</t>
+  </si>
+  <si>
+    <t>Lockjaw, inhuman's best friend</t>
+  </si>
+  <si>
+    <t>Stomping shockwave</t>
+  </si>
+  <si>
+    <t>gorgon,jpg</t>
+  </si>
+  <si>
+    <t>Karnak</t>
+  </si>
+  <si>
+    <t>Find fatal flaw</t>
+  </si>
+  <si>
+    <t>Brilliant strategist</t>
+  </si>
+  <si>
+    <t>Seek the center</t>
+  </si>
+  <si>
+    <t>Shatter the weak point</t>
+  </si>
+  <si>
+    <t>karnak,jpg</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Royal command</t>
+  </si>
+  <si>
+    <t>Headstrong</t>
+  </si>
+  <si>
+    <t>Queen of the inhumans</t>
+  </si>
+  <si>
+    <t>Splitting hairs</t>
+  </si>
+  <si>
+    <t>medusa,jpg</t>
   </si>
 </sst>
 </file>
@@ -4904,13 +5012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY908"/>
+  <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D898" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA13" sqref="BA13"/>
+      <selection pane="bottomRight" activeCell="R929" sqref="R929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14242,6 +14350,9 @@
       <c r="D227" t="s">
         <v>167</v>
       </c>
+      <c r="F227" t="s">
+        <v>358</v>
+      </c>
       <c r="H227">
         <v>4</v>
       </c>
@@ -14286,6 +14397,9 @@
       <c r="D228" t="s">
         <v>167</v>
       </c>
+      <c r="F228" t="s">
+        <v>358</v>
+      </c>
       <c r="H228">
         <v>3</v>
       </c>
@@ -14324,6 +14438,9 @@
       <c r="D229" t="s">
         <v>167</v>
       </c>
+      <c r="F229" t="s">
+        <v>358</v>
+      </c>
       <c r="H229">
         <v>6</v>
       </c>
@@ -14365,6 +14482,9 @@
       <c r="D230" t="s">
         <v>167</v>
       </c>
+      <c r="F230" t="s">
+        <v>358</v>
+      </c>
       <c r="H230">
         <v>8</v>
       </c>
@@ -40761,6 +40881,775 @@
       </c>
       <c r="AY908" t="s">
         <v>1414</v>
+      </c>
+    </row>
+    <row r="909" spans="1:51">
+      <c r="A909" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B909" t="s">
+        <v>358</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F909" t="s">
+        <v>358</v>
+      </c>
+      <c r="H909">
+        <v>4</v>
+      </c>
+      <c r="I909">
+        <v>3</v>
+      </c>
+      <c r="N909">
+        <v>1</v>
+      </c>
+      <c r="V909">
+        <v>1</v>
+      </c>
+      <c r="AC909">
+        <v>-1</v>
+      </c>
+      <c r="AJ909">
+        <v>1</v>
+      </c>
+      <c r="AW909" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX909" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AY909" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="910" spans="1:51">
+      <c r="A910" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B910" t="s">
+        <v>358</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F910" t="s">
+        <v>358</v>
+      </c>
+      <c r="H910">
+        <v>8</v>
+      </c>
+      <c r="I910">
+        <v>1</v>
+      </c>
+      <c r="J910">
+        <v>1</v>
+      </c>
+      <c r="V910">
+        <v>1</v>
+      </c>
+      <c r="AW910" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX910" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AY910" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="911" spans="1:51">
+      <c r="A911" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B911" t="s">
+        <v>358</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F911" t="s">
+        <v>358</v>
+      </c>
+      <c r="H911">
+        <v>3</v>
+      </c>
+      <c r="I911">
+        <v>5</v>
+      </c>
+      <c r="J911">
+        <v>1</v>
+      </c>
+      <c r="O911">
+        <v>1</v>
+      </c>
+      <c r="U911">
+        <v>1</v>
+      </c>
+      <c r="AM911">
+        <v>1</v>
+      </c>
+      <c r="AW911" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX911" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AY911" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="912" spans="1:51">
+      <c r="A912" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B912" t="s">
+        <v>358</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F912" t="s">
+        <v>358</v>
+      </c>
+      <c r="H912">
+        <v>5</v>
+      </c>
+      <c r="I912">
+        <v>5</v>
+      </c>
+      <c r="J912">
+        <v>1</v>
+      </c>
+      <c r="U912">
+        <v>1</v>
+      </c>
+      <c r="V912">
+        <v>1</v>
+      </c>
+      <c r="AC912">
+        <v>1</v>
+      </c>
+      <c r="AX912" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AY912" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="913" spans="1:51">
+      <c r="A913" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H913">
+        <v>6</v>
+      </c>
+      <c r="I913">
+        <v>3</v>
+      </c>
+      <c r="K913">
+        <v>1</v>
+      </c>
+      <c r="T913">
+        <v>-1</v>
+      </c>
+      <c r="V913">
+        <v>1</v>
+      </c>
+      <c r="AM913">
+        <v>1</v>
+      </c>
+      <c r="AW913" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX913" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AY913" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="914" spans="1:51">
+      <c r="A914" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H914">
+        <v>8</v>
+      </c>
+      <c r="I914">
+        <v>1</v>
+      </c>
+      <c r="L914">
+        <v>1</v>
+      </c>
+      <c r="O914">
+        <v>1</v>
+      </c>
+      <c r="P914">
+        <v>1</v>
+      </c>
+      <c r="Q914">
+        <v>1</v>
+      </c>
+      <c r="R914">
+        <v>1</v>
+      </c>
+      <c r="V914">
+        <v>1</v>
+      </c>
+      <c r="AX914" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AY914" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="915" spans="1:51">
+      <c r="A915" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H915">
+        <v>3</v>
+      </c>
+      <c r="I915">
+        <v>5</v>
+      </c>
+      <c r="J915">
+        <v>1</v>
+      </c>
+      <c r="O915">
+        <v>1</v>
+      </c>
+      <c r="P915">
+        <v>1</v>
+      </c>
+      <c r="Q915">
+        <v>1</v>
+      </c>
+      <c r="R915">
+        <v>1</v>
+      </c>
+      <c r="V915">
+        <v>1</v>
+      </c>
+      <c r="AX915" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AY915" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="916" spans="1:51">
+      <c r="A916" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H916">
+        <v>4</v>
+      </c>
+      <c r="I916">
+        <v>5</v>
+      </c>
+      <c r="M916">
+        <v>1</v>
+      </c>
+      <c r="T916">
+        <v>-1</v>
+      </c>
+      <c r="U916">
+        <v>1</v>
+      </c>
+      <c r="W916">
+        <v>1</v>
+      </c>
+      <c r="AX916" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AY916" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="917" spans="1:51">
+      <c r="A917" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H917">
+        <v>6</v>
+      </c>
+      <c r="I917">
+        <v>3</v>
+      </c>
+      <c r="L917">
+        <v>1</v>
+      </c>
+      <c r="V917">
+        <v>1</v>
+      </c>
+      <c r="AM917">
+        <v>1</v>
+      </c>
+      <c r="AX917" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AY917" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="918" spans="1:51">
+      <c r="A918" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H918">
+        <v>8</v>
+      </c>
+      <c r="I918">
+        <v>1</v>
+      </c>
+      <c r="L918">
+        <v>1</v>
+      </c>
+      <c r="V918">
+        <v>1</v>
+      </c>
+      <c r="AB918">
+        <v>-1</v>
+      </c>
+      <c r="AJ918">
+        <v>1</v>
+      </c>
+      <c r="AX918" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AY918" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="919" spans="1:51">
+      <c r="A919" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H919">
+        <v>3</v>
+      </c>
+      <c r="I919">
+        <v>5</v>
+      </c>
+      <c r="K919">
+        <v>1</v>
+      </c>
+      <c r="P919">
+        <v>1</v>
+      </c>
+      <c r="U919">
+        <v>1</v>
+      </c>
+      <c r="AX919" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AY919" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="920" spans="1:51">
+      <c r="A920" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H920">
+        <v>5</v>
+      </c>
+      <c r="I920">
+        <v>5</v>
+      </c>
+      <c r="L920">
+        <v>1</v>
+      </c>
+      <c r="Q920">
+        <v>1</v>
+      </c>
+      <c r="V920">
+        <v>1</v>
+      </c>
+      <c r="AB920">
+        <v>-1</v>
+      </c>
+      <c r="AX920" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AY920" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="921" spans="1:51">
+      <c r="A921" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H921">
+        <v>4</v>
+      </c>
+      <c r="I921">
+        <v>5</v>
+      </c>
+      <c r="M921">
+        <v>1</v>
+      </c>
+      <c r="U921">
+        <v>1</v>
+      </c>
+      <c r="AL921">
+        <v>1</v>
+      </c>
+      <c r="AX921" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AY921" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="922" spans="1:51">
+      <c r="A922" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H922">
+        <v>2</v>
+      </c>
+      <c r="I922">
+        <v>5</v>
+      </c>
+      <c r="K922">
+        <v>1</v>
+      </c>
+      <c r="P922">
+        <v>1</v>
+      </c>
+      <c r="V922">
+        <v>1</v>
+      </c>
+      <c r="AX922" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AY922" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="923" spans="1:51">
+      <c r="A923" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H923">
+        <v>7</v>
+      </c>
+      <c r="I923">
+        <v>1</v>
+      </c>
+      <c r="K923">
+        <v>1</v>
+      </c>
+      <c r="AX923" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AY923" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="924" spans="1:51">
+      <c r="A924" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H924">
+        <v>5</v>
+      </c>
+      <c r="I924">
+        <v>3</v>
+      </c>
+      <c r="L924">
+        <v>1</v>
+      </c>
+      <c r="V924">
+        <v>1</v>
+      </c>
+      <c r="AL924">
+        <v>1</v>
+      </c>
+      <c r="AX924" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AY924" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="925" spans="1:51">
+      <c r="A925" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H925">
+        <v>5</v>
+      </c>
+      <c r="I925">
+        <v>3</v>
+      </c>
+      <c r="M925">
+        <v>1</v>
+      </c>
+      <c r="V925">
+        <v>1</v>
+      </c>
+      <c r="AJ925">
+        <v>1</v>
+      </c>
+      <c r="AL925">
+        <v>1</v>
+      </c>
+      <c r="AW925" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX925" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY925" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="926" spans="1:51">
+      <c r="A926" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H926">
+        <v>7</v>
+      </c>
+      <c r="I926">
+        <v>1</v>
+      </c>
+      <c r="M926">
+        <v>1</v>
+      </c>
+      <c r="V926">
+        <v>1</v>
+      </c>
+      <c r="W926">
+        <v>2</v>
+      </c>
+      <c r="AW926" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX926" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY926" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="927" spans="1:51">
+      <c r="A927" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
+        <v>5</v>
+      </c>
+      <c r="L927">
+        <v>1</v>
+      </c>
+      <c r="V927">
+        <v>1</v>
+      </c>
+      <c r="AW927" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX927" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY927" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="928" spans="1:51">
+      <c r="A928" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H928">
+        <v>3</v>
+      </c>
+      <c r="I928">
+        <v>5</v>
+      </c>
+      <c r="M928">
+        <v>1</v>
+      </c>
+      <c r="R928">
+        <v>1</v>
+      </c>
+      <c r="V928">
+        <v>1</v>
+      </c>
+      <c r="W928">
+        <v>1</v>
+      </c>
+      <c r="AW928" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AX928" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY928" t="s">
+        <v>1526</v>
       </c>
     </row>
   </sheetData>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="1552">
   <si>
     <t>Team</t>
   </si>
@@ -4671,6 +4671,9 @@
   </si>
   <si>
     <t>medusa,jpg</t>
+  </si>
+  <si>
+    <t>T4.5</t>
   </si>
 </sst>
 </file>
@@ -5015,10 +5018,10 @@
   <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D898" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D630" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R929" sqref="R929"/>
+      <selection pane="bottomRight" activeCell="F649" sqref="F649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10930,7 +10933,7 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -10968,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -31034,6 +31037,9 @@
       <c r="D646" t="s">
         <v>914</v>
       </c>
+      <c r="E646" t="s">
+        <v>1551</v>
+      </c>
       <c r="H646">
         <v>7</v>
       </c>
@@ -31065,6 +31071,9 @@
       </c>
       <c r="D647" t="s">
         <v>914</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1551</v>
       </c>
       <c r="H647">
         <v>7</v>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -5018,10 +5018,10 @@
   <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D630" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D639" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F649" sqref="F649"/>
+      <selection pane="bottomRight" activeCell="G647" sqref="G647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9391,7 +9391,7 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -14469,7 +14469,7 @@
         <v>1497</v>
       </c>
       <c r="AY229" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="230" spans="1:51">
@@ -14513,7 +14513,7 @@
         <v>1497</v>
       </c>
       <c r="AY230" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="231" spans="1:51">
@@ -24306,7 +24306,7 @@
         <v>6</v>
       </c>
       <c r="I472">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L472">
         <v>1</v>
@@ -27289,7 +27289,7 @@
         <v>5</v>
       </c>
       <c r="I549">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N549">
         <v>1</v>
@@ -31040,6 +31040,9 @@
       <c r="E646" t="s">
         <v>1551</v>
       </c>
+      <c r="G646">
+        <v>1</v>
+      </c>
       <c r="H646">
         <v>7</v>
       </c>
@@ -31783,7 +31786,7 @@
         <v>3</v>
       </c>
       <c r="I666">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L666">
         <v>1</v>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -5018,10 +5018,10 @@
   <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D639" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AB770" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G647" sqref="G647"/>
+      <selection pane="bottomRight" activeCell="AX792" sqref="AX792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36477,7 +36477,7 @@
         <v>1</v>
       </c>
       <c r="AX790" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AY790" t="s">
         <v>1438</v>
@@ -36515,7 +36515,7 @@
         <v>1</v>
       </c>
       <c r="AX791" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AY791" t="s">
         <v>1435</v>
@@ -36553,7 +36553,7 @@
         <v>1</v>
       </c>
       <c r="AX792" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AY792" t="s">
         <v>1434</v>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -5018,10 +5018,10 @@
   <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB770" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AB89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX792" sqref="AX792"/>
+      <selection pane="bottomRight" activeCell="AW108" sqref="AW108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9520,7 +9520,7 @@
         <v>2</v>
       </c>
       <c r="AX108" t="s">
-        <v>1433</v>
+        <v>1504</v>
       </c>
       <c r="AY108" t="s">
         <v>1430</v>
@@ -9558,7 +9558,7 @@
         <v>623</v>
       </c>
       <c r="AX109" t="s">
-        <v>1433</v>
+        <v>1504</v>
       </c>
       <c r="AY109" t="s">
         <v>1432</v>
@@ -9596,7 +9596,7 @@
         <v>623</v>
       </c>
       <c r="AX110" t="s">
-        <v>1433</v>
+        <v>1504</v>
       </c>
       <c r="AY110" t="s">
         <v>1445</v>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -5018,10 +5018,10 @@
   <dimension ref="A1:AY928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AE686" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW108" sqref="AW108"/>
+      <selection pane="bottomRight" activeCell="AY713" sqref="AY713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33471,7 +33471,7 @@
         <v>1513</v>
       </c>
       <c r="AY709" t="s">
-        <v>1450</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="710" spans="1:51">
@@ -33506,7 +33506,7 @@
         <v>1513</v>
       </c>
       <c r="AY710" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="711" spans="1:51">
@@ -33541,7 +33541,7 @@
         <v>1513</v>
       </c>
       <c r="AY711" t="s">
-        <v>1449</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="712" spans="1:51">
@@ -33582,7 +33582,7 @@
         <v>1513</v>
       </c>
       <c r="AY712" t="s">
-        <v>1448</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="713" spans="1:51">

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="1552">
   <si>
     <t>Team</t>
   </si>
@@ -5015,13 +5015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY928"/>
+  <dimension ref="A1:AZ928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AE686" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY713" sqref="AY713"/>
+      <selection pane="bottomRight" activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5065,7 +5065,7 @@
     <col min="49" max="49" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5219,8 +5219,11 @@
       <c r="AY1" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="2" spans="1:51">
+      <c r="AZ1" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>1315</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>1315</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>1315</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>1315</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
         <v>1315</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
         <v>1315</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
         <v>1315</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
         <v>1315</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
         <v>1315</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
         <v>1315</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
         <v>1315</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
         <v>1315</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
         <v>1315</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
         <v>1315</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
         <v>1315</v>
       </c>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -5084,10 +5084,10 @@
   <dimension ref="A1:AZ948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y915" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D532" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY948" sqref="AY948"/>
+      <selection pane="bottomRight" activeCell="J555" sqref="J555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27551,6 +27551,9 @@
       <c r="I554">
         <v>1</v>
       </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
       <c r="V554">
         <v>1</v>
       </c>

--- a/data/heroes.xlsx
+++ b/data/heroes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6896" uniqueCount="1644">
   <si>
     <t>Team</t>
   </si>
@@ -4740,6 +4740,216 @@
   </si>
   <si>
     <t>anni,jpg</t>
+  </si>
+  <si>
+    <t>X-Factor</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Uncover Family Secrets</t>
+  </si>
+  <si>
+    <t>Three Sisters Combined</t>
+  </si>
+  <si>
+    <t>Penance Form</t>
+  </si>
+  <si>
+    <t>Interweaving Powers</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>mc2,jpg</t>
+  </si>
+  <si>
+    <t>Multiple Man</t>
+  </si>
+  <si>
+    <t>Perfect Match</t>
+  </si>
+  <si>
+    <t>Me, Myself and I</t>
+  </si>
+  <si>
+    <t>Finding Myself</t>
+  </si>
+  <si>
+    <t>Reabsorb Duplicates</t>
+  </si>
+  <si>
+    <t>Rictor</t>
+  </si>
+  <si>
+    <t>Unearth Tectonic Power</t>
+  </si>
+  <si>
+    <t>Underground Cave-In</t>
+  </si>
+  <si>
+    <t>Trace the Fault Lines</t>
+  </si>
+  <si>
+    <t>Massive Earthquake</t>
+  </si>
+  <si>
+    <t>Shatterstar</t>
+  </si>
+  <si>
+    <t>Strive for Greatness</t>
+  </si>
+  <si>
+    <t>Gladiator Blades</t>
+  </si>
+  <si>
+    <t>Bioelectric Surge</t>
+  </si>
+  <si>
+    <t>Gene-Spliced Creation</t>
+  </si>
+  <si>
+    <t>Siryn</t>
+  </si>
+  <si>
+    <t>Echolocation</t>
+  </si>
+  <si>
+    <t>Hypnotic Call</t>
+  </si>
+  <si>
+    <t>Three-Octave Arpeggio</t>
+  </si>
+  <si>
+    <t>Splintering Shriek</t>
+  </si>
+  <si>
+    <t>Stepford Cuckoos</t>
+  </si>
+  <si>
+    <t>Telepathic Warning</t>
+  </si>
+  <si>
+    <t>Shared Thoughts</t>
+  </si>
+  <si>
+    <t>Find Mutants with Cerebro</t>
+  </si>
+  <si>
+    <t>Mind Wipe</t>
+  </si>
+  <si>
+    <t>Strong Guy</t>
+  </si>
+  <si>
+    <t>Absorb Kinetic Energy</t>
+  </si>
+  <si>
+    <t>X-Factor Investigations</t>
+  </si>
+  <si>
+    <t>Go Big</t>
+  </si>
+  <si>
+    <t>Treasure Hunt</t>
+  </si>
+  <si>
+    <t>Warpath</t>
+  </si>
+  <si>
+    <t>Endless Endurance</t>
+  </si>
+  <si>
+    <t>Grim Tracker</t>
+  </si>
+  <si>
+    <t>Dangerous Maneuver</t>
+  </si>
+  <si>
+    <t>Superhuman Senses</t>
+  </si>
+  <si>
+    <t>Clea</t>
+  </si>
+  <si>
+    <t>Demonic Descendant</t>
+  </si>
+  <si>
+    <t>Prepare Dark Magic</t>
+  </si>
+  <si>
+    <t>Bind the Dark Dimension</t>
+  </si>
+  <si>
+    <t>The Purple Gem</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>strangexp,jpg</t>
+  </si>
+  <si>
+    <t>Doctor Strange</t>
+  </si>
+  <si>
+    <t>Keeper of the Sanctum</t>
+  </si>
+  <si>
+    <t>Book of Cagliostro</t>
+  </si>
+  <si>
+    <t>The Eye of Agamotto</t>
+  </si>
+  <si>
+    <t>Wand of Watoomb</t>
+  </si>
+  <si>
+    <t>Doctor Voodoo</t>
+  </si>
+  <si>
+    <t>Commune with the Spirit World</t>
+  </si>
+  <si>
+    <t>Medallion of Many Loas</t>
+  </si>
+  <si>
+    <t>Staff of Legba</t>
+  </si>
+  <si>
+    <t>Possessed by Brother's Spirit</t>
+  </si>
+  <si>
+    <t>The Ancient One</t>
+  </si>
+  <si>
+    <t>Astral Confrontation</t>
+  </si>
+  <si>
+    <t>Teachings of Kamar-Taj</t>
+  </si>
+  <si>
+    <t>War of the Mind</t>
+  </si>
+  <si>
+    <t>The Orb of Agamotto</t>
+  </si>
+  <si>
+    <t>The Vishanti</t>
+  </si>
+  <si>
+    <t>Hoggoth</t>
+  </si>
+  <si>
+    <t>Oshtur</t>
+  </si>
+  <si>
+    <t>Agamotto</t>
+  </si>
+  <si>
+    <t>The Book of the Vishanti</t>
   </si>
 </sst>
 </file>
@@ -5081,13 +5291,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ948"/>
+  <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D532" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Z978" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J555" sqref="J555"/>
+      <selection pane="bottomRight" activeCell="AY1001" sqref="AY1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42506,6 +42716,1514 @@
         <v>1429</v>
       </c>
     </row>
+    <row r="949" spans="1:51">
+      <c r="A949" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H949">
+        <v>3</v>
+      </c>
+      <c r="I949">
+        <v>4</v>
+      </c>
+      <c r="K949">
+        <v>1</v>
+      </c>
+      <c r="AX949" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY949" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="950" spans="1:51">
+      <c r="A950" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H950">
+        <v>3</v>
+      </c>
+      <c r="I950">
+        <v>4</v>
+      </c>
+      <c r="L950">
+        <v>1</v>
+      </c>
+      <c r="AX950" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY950" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="951" spans="1:51">
+      <c r="A951" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H951">
+        <v>3</v>
+      </c>
+      <c r="I951">
+        <v>4</v>
+      </c>
+      <c r="L951">
+        <v>1</v>
+      </c>
+      <c r="AX951" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY951" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="952" spans="1:51">
+      <c r="A952" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H952">
+        <v>3</v>
+      </c>
+      <c r="I952">
+        <v>2</v>
+      </c>
+      <c r="K952">
+        <v>1</v>
+      </c>
+      <c r="AX952" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY952" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="953" spans="1:51">
+      <c r="A953" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H953">
+        <v>4</v>
+      </c>
+      <c r="I953">
+        <v>4</v>
+      </c>
+      <c r="N953">
+        <v>1</v>
+      </c>
+      <c r="AX953" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY953" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="954" spans="1:51">
+      <c r="A954" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H954">
+        <v>4</v>
+      </c>
+      <c r="I954">
+        <v>4</v>
+      </c>
+      <c r="M954">
+        <v>1</v>
+      </c>
+      <c r="AX954" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY954" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="955" spans="1:51">
+      <c r="A955" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H955">
+        <v>4</v>
+      </c>
+      <c r="I955">
+        <v>4</v>
+      </c>
+      <c r="N955">
+        <v>1</v>
+      </c>
+      <c r="AX955" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY955" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="956" spans="1:51">
+      <c r="A956" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H956">
+        <v>4</v>
+      </c>
+      <c r="I956">
+        <v>2</v>
+      </c>
+      <c r="M956">
+        <v>1</v>
+      </c>
+      <c r="AX956" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY956" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="957" spans="1:51">
+      <c r="A957" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H957">
+        <v>5</v>
+      </c>
+      <c r="I957">
+        <v>5</v>
+      </c>
+      <c r="M957">
+        <v>1</v>
+      </c>
+      <c r="AX957" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY957" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="958" spans="1:51">
+      <c r="A958" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H958">
+        <v>3</v>
+      </c>
+      <c r="I958">
+        <v>5</v>
+      </c>
+      <c r="J958">
+        <v>1</v>
+      </c>
+      <c r="AX958" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY958" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="959" spans="1:51">
+      <c r="A959" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H959">
+        <v>4</v>
+      </c>
+      <c r="I959">
+        <v>3</v>
+      </c>
+      <c r="J959">
+        <v>1</v>
+      </c>
+      <c r="AX959" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY959" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="960" spans="1:51">
+      <c r="A960" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H960">
+        <v>7</v>
+      </c>
+      <c r="I960">
+        <v>1</v>
+      </c>
+      <c r="J960">
+        <v>1</v>
+      </c>
+      <c r="AX960" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY960" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="961" spans="1:51">
+      <c r="A961" t="s">
+        <v>653</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H961">
+        <v>3</v>
+      </c>
+      <c r="I961">
+        <v>4</v>
+      </c>
+      <c r="M961">
+        <v>1</v>
+      </c>
+      <c r="AX961" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY961" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="962" spans="1:51">
+      <c r="A962" t="s">
+        <v>653</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H962">
+        <v>5</v>
+      </c>
+      <c r="I962">
+        <v>4</v>
+      </c>
+      <c r="M962">
+        <v>1</v>
+      </c>
+      <c r="AX962" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY962" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="963" spans="1:51">
+      <c r="A963" t="s">
+        <v>653</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H963">
+        <v>5</v>
+      </c>
+      <c r="I963">
+        <v>4</v>
+      </c>
+      <c r="J963">
+        <v>1</v>
+      </c>
+      <c r="AX963" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY963" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="964" spans="1:51">
+      <c r="A964" t="s">
+        <v>653</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H964">
+        <v>5</v>
+      </c>
+      <c r="I964">
+        <v>2</v>
+      </c>
+      <c r="M964">
+        <v>1</v>
+      </c>
+      <c r="AX964" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY964" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="965" spans="1:51">
+      <c r="A965" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H965">
+        <v>2</v>
+      </c>
+      <c r="I965">
+        <v>5</v>
+      </c>
+      <c r="K965">
+        <v>1</v>
+      </c>
+      <c r="AX965" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY965" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="966" spans="1:51">
+      <c r="A966" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H966">
+        <v>4</v>
+      </c>
+      <c r="I966">
+        <v>5</v>
+      </c>
+      <c r="K966">
+        <v>1</v>
+      </c>
+      <c r="AX966" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY966" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="967" spans="1:51">
+      <c r="A967" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H967">
+        <v>6</v>
+      </c>
+      <c r="I967">
+        <v>3</v>
+      </c>
+      <c r="J967">
+        <v>1</v>
+      </c>
+      <c r="AX967" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY967" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="968" spans="1:51">
+      <c r="A968" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H968">
+        <v>8</v>
+      </c>
+      <c r="I968">
+        <v>1</v>
+      </c>
+      <c r="K968">
+        <v>1</v>
+      </c>
+      <c r="AX968" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY968" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="969" spans="1:51">
+      <c r="A969" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H969">
+        <v>3</v>
+      </c>
+      <c r="I969">
+        <v>4</v>
+      </c>
+      <c r="J969">
+        <v>1</v>
+      </c>
+      <c r="AX969" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY969" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="970" spans="1:51">
+      <c r="A970" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H970">
+        <v>2</v>
+      </c>
+      <c r="I970">
+        <v>4</v>
+      </c>
+      <c r="K970">
+        <v>1</v>
+      </c>
+      <c r="AX970" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY970" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="971" spans="1:51">
+      <c r="A971" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H971">
+        <v>2</v>
+      </c>
+      <c r="I971">
+        <v>4</v>
+      </c>
+      <c r="N971">
+        <v>1</v>
+      </c>
+      <c r="AX971" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY971" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="972" spans="1:51">
+      <c r="A972" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H972">
+        <v>3</v>
+      </c>
+      <c r="I972">
+        <v>2</v>
+      </c>
+      <c r="J972">
+        <v>1</v>
+      </c>
+      <c r="AX972" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY972" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="973" spans="1:51">
+      <c r="A973" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H973">
+        <v>5</v>
+      </c>
+      <c r="I973">
+        <v>5</v>
+      </c>
+      <c r="L973">
+        <v>1</v>
+      </c>
+      <c r="AX973" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY973" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="974" spans="1:51">
+      <c r="A974" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H974">
+        <v>4</v>
+      </c>
+      <c r="I974">
+        <v>5</v>
+      </c>
+      <c r="L974">
+        <v>1</v>
+      </c>
+      <c r="AX974" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY974" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="975" spans="1:51">
+      <c r="A975" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H975">
+        <v>4</v>
+      </c>
+      <c r="I975">
+        <v>3</v>
+      </c>
+      <c r="L975">
+        <v>1</v>
+      </c>
+      <c r="AX975" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY975" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="976" spans="1:51">
+      <c r="A976" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H976">
+        <v>8</v>
+      </c>
+      <c r="I976">
+        <v>1</v>
+      </c>
+      <c r="L976">
+        <v>1</v>
+      </c>
+      <c r="AX976" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY976" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="977" spans="1:51">
+      <c r="A977" t="s">
+        <v>653</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H977">
+        <v>5</v>
+      </c>
+      <c r="I977">
+        <v>5</v>
+      </c>
+      <c r="L977">
+        <v>1</v>
+      </c>
+      <c r="AX977" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY977" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="978" spans="1:51">
+      <c r="A978" t="s">
+        <v>653</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H978">
+        <v>2</v>
+      </c>
+      <c r="I978">
+        <v>5</v>
+      </c>
+      <c r="M978">
+        <v>1</v>
+      </c>
+      <c r="AX978" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY978" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="979" spans="1:51">
+      <c r="A979" t="s">
+        <v>653</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H979">
+        <v>2</v>
+      </c>
+      <c r="I979">
+        <v>3</v>
+      </c>
+      <c r="K979">
+        <v>1</v>
+      </c>
+      <c r="AX979" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY979" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="980" spans="1:51">
+      <c r="A980" t="s">
+        <v>653</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H980">
+        <v>7</v>
+      </c>
+      <c r="I980">
+        <v>1</v>
+      </c>
+      <c r="M980">
+        <v>1</v>
+      </c>
+      <c r="AX980" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AY980" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="981" spans="1:51">
+      <c r="A981" t="s">
+        <v>429</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H981">
+        <v>4</v>
+      </c>
+      <c r="I981">
+        <v>5</v>
+      </c>
+      <c r="K981">
+        <v>1</v>
+      </c>
+      <c r="AX981" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY981" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="982" spans="1:51">
+      <c r="A982" t="s">
+        <v>429</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H982">
+        <v>3</v>
+      </c>
+      <c r="I982">
+        <v>5</v>
+      </c>
+      <c r="J982">
+        <v>1</v>
+      </c>
+      <c r="AX982" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY982" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="983" spans="1:51">
+      <c r="A983" t="s">
+        <v>429</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H983">
+        <v>6</v>
+      </c>
+      <c r="I983">
+        <v>3</v>
+      </c>
+      <c r="J983">
+        <v>1</v>
+      </c>
+      <c r="AX983" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY983" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="984" spans="1:51">
+      <c r="A984" t="s">
+        <v>429</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H984">
+        <v>7</v>
+      </c>
+      <c r="I984">
+        <v>1</v>
+      </c>
+      <c r="K984">
+        <v>1</v>
+      </c>
+      <c r="AX984" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY984" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="985" spans="1:51">
+      <c r="A985" t="s">
+        <v>385</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H985">
+        <v>4</v>
+      </c>
+      <c r="I985">
+        <v>5</v>
+      </c>
+      <c r="M985">
+        <v>1</v>
+      </c>
+      <c r="AX985" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY985" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="986" spans="1:51">
+      <c r="A986" t="s">
+        <v>385</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H986">
+        <v>3</v>
+      </c>
+      <c r="I986">
+        <v>5</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="AX986" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY986" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="987" spans="1:51">
+      <c r="A987" t="s">
+        <v>385</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H987">
+        <v>2</v>
+      </c>
+      <c r="I987">
+        <v>3</v>
+      </c>
+      <c r="M987">
+        <v>1</v>
+      </c>
+      <c r="AX987" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY987" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="988" spans="1:51">
+      <c r="A988" t="s">
+        <v>385</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H988">
+        <v>8</v>
+      </c>
+      <c r="I988">
+        <v>1</v>
+      </c>
+      <c r="J988">
+        <v>1</v>
+      </c>
+      <c r="AX988" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY988" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="989" spans="1:51">
+      <c r="A989" t="s">
+        <v>385</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H989">
+        <v>3</v>
+      </c>
+      <c r="I989">
+        <v>5</v>
+      </c>
+      <c r="K989">
+        <v>1</v>
+      </c>
+      <c r="AX989" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY989" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="990" spans="1:51">
+      <c r="A990" t="s">
+        <v>385</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H990">
+        <v>4</v>
+      </c>
+      <c r="I990">
+        <v>5</v>
+      </c>
+      <c r="N990">
+        <v>1</v>
+      </c>
+      <c r="AX990" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY990" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="991" spans="1:51">
+      <c r="A991" t="s">
+        <v>385</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H991">
+        <v>5</v>
+      </c>
+      <c r="I991">
+        <v>3</v>
+      </c>
+      <c r="L991">
+        <v>1</v>
+      </c>
+      <c r="AX991" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY991" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="992" spans="1:51">
+      <c r="A992" t="s">
+        <v>385</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H992">
+        <v>7</v>
+      </c>
+      <c r="I992">
+        <v>1</v>
+      </c>
+      <c r="M992">
+        <v>1</v>
+      </c>
+      <c r="AX992" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY992" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="993" spans="1:51">
+      <c r="A993" t="s">
+        <v>701</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H993">
+        <v>3</v>
+      </c>
+      <c r="I993">
+        <v>5</v>
+      </c>
+      <c r="K993">
+        <v>1</v>
+      </c>
+      <c r="AX993" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY993" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="994" spans="1:51">
+      <c r="A994" t="s">
+        <v>701</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H994">
+        <v>5</v>
+      </c>
+      <c r="I994">
+        <v>5</v>
+      </c>
+      <c r="M994">
+        <v>1</v>
+      </c>
+      <c r="AX994" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY994" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="995" spans="1:51">
+      <c r="A995" t="s">
+        <v>701</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H995">
+        <v>6</v>
+      </c>
+      <c r="I995">
+        <v>3</v>
+      </c>
+      <c r="K995">
+        <v>1</v>
+      </c>
+      <c r="AX995" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY995" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="996" spans="1:51">
+      <c r="A996" t="s">
+        <v>701</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H996">
+        <v>8</v>
+      </c>
+      <c r="I996">
+        <v>1</v>
+      </c>
+      <c r="M996">
+        <v>1</v>
+      </c>
+      <c r="AX996" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY996" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="997" spans="1:51">
+      <c r="A997" t="s">
+        <v>701</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H997">
+        <v>5</v>
+      </c>
+      <c r="I997">
+        <v>5</v>
+      </c>
+      <c r="M997">
+        <v>1</v>
+      </c>
+      <c r="AX997" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY997" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="998" spans="1:51">
+      <c r="A998" t="s">
+        <v>701</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H998">
+        <v>3</v>
+      </c>
+      <c r="I998">
+        <v>5</v>
+      </c>
+      <c r="L998">
+        <v>1</v>
+      </c>
+      <c r="AX998" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY998" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="999" spans="1:51">
+      <c r="A999" t="s">
+        <v>701</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H999">
+        <v>4</v>
+      </c>
+      <c r="I999">
+        <v>3</v>
+      </c>
+      <c r="J999">
+        <v>1</v>
+      </c>
+      <c r="AX999" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY999" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:51">
+      <c r="A1000" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H1000">
+        <v>7</v>
+      </c>
+      <c r="I1000">
+        <v>1</v>
+      </c>
+      <c r="K1000">
+        <v>1</v>
+      </c>
+      <c r="AX1000" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AY1000" t="s">
+        <v>1454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
